--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="108">
   <si>
     <t>seas_id_x</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>BOS</t>
+  </si>
+  <si>
+    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>1968-69</t>
@@ -1010,8 +1013,12 @@
       <c r="AD2" s="2">
         <v>4.9</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
+      <c r="AE2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2">
         <v>3</v>
@@ -1020,13 +1027,13 @@
         <v>9.9</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AM2" s="2">
         <v>3901</v>
@@ -1035,7 +1042,7 @@
         <v>699</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2" t="s">
@@ -1051,7 +1058,7 @@
         <v>87</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="2">
         <v>81</v>
@@ -1101,8 +1108,12 @@
       <c r="BO2" s="2">
         <v>4.5</v>
       </c>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
+      <c r="BP2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR2" s="2"/>
       <c r="BS2" s="2">
         <v>1.8</v>
@@ -1111,13 +1122,13 @@
         <v>20.5</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BV2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -1197,8 +1208,12 @@
       <c r="AD3" s="2">
         <v>4.6</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
+      <c r="AE3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2">
         <v>3.1</v>
@@ -1207,13 +1222,13 @@
         <v>12.5</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM3" s="2">
         <v>3485</v>
@@ -1222,7 +1237,7 @@
         <v>699</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="s">
@@ -1238,7 +1253,7 @@
         <v>87</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AV3" s="2">
         <v>82</v>
@@ -1288,8 +1303,12 @@
       <c r="BO3" s="3">
         <v>8.6</v>
       </c>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
+      <c r="BP3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR3" s="2"/>
       <c r="BS3" s="2">
         <v>2</v>
@@ -1298,13 +1317,13 @@
         <v>24.3</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BV3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW3" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -1384,8 +1403,12 @@
       <c r="AD4" s="3">
         <v>5.8</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="AE4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
         <v>3.2</v>
@@ -1394,13 +1417,13 @@
         <v>13.3</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM4" s="2">
         <v>3118</v>
@@ -1409,7 +1432,7 @@
         <v>699</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2" t="s">
@@ -1425,7 +1448,7 @@
         <v>87</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AV4" s="2">
         <v>81</v>
@@ -1475,8 +1498,12 @@
       <c r="BO4" s="2">
         <v>7.8</v>
       </c>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
+      <c r="BP4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR4" s="2"/>
       <c r="BS4" s="2">
         <v>1.8</v>
@@ -1485,13 +1512,13 @@
         <v>24.1</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BV4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW4" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -1571,8 +1598,12 @@
       <c r="AD5" s="2">
         <v>4.8</v>
       </c>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="AE5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2">
         <v>2.8</v>
@@ -1581,13 +1612,13 @@
         <v>12.9</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL5" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM5" s="2">
         <v>2984</v>
@@ -1596,7 +1627,7 @@
         <v>699</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2" t="s">
@@ -1612,7 +1643,7 @@
         <v>87</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AV5" s="2">
         <v>79</v>
@@ -1662,8 +1693,12 @@
       <c r="BO5" s="2">
         <v>5.2</v>
       </c>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
+      <c r="BP5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR5" s="2"/>
       <c r="BS5" s="2">
         <v>2.2</v>
@@ -1672,13 +1707,13 @@
         <v>33.5</v>
       </c>
       <c r="BU5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BV5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW5" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:75">
@@ -1758,8 +1793,12 @@
       <c r="AD6" s="2">
         <v>5.3</v>
       </c>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
+      <c r="AE6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2">
         <v>2.6</v>
@@ -1768,13 +1807,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM6" s="2">
         <v>2848</v>
@@ -1783,7 +1822,7 @@
         <v>699</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2" t="s">
@@ -1799,7 +1838,7 @@
         <v>87</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AV6" s="2">
         <v>73</v>
@@ -1849,8 +1888,12 @@
       <c r="BO6" s="2">
         <v>3.4</v>
       </c>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
+      <c r="BP6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR6" s="2"/>
       <c r="BS6" s="2">
         <v>2</v>
@@ -1859,13 +1902,13 @@
         <v>34.7</v>
       </c>
       <c r="BU6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BV6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -1945,8 +1988,12 @@
       <c r="AD7" s="2">
         <v>5.3</v>
       </c>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
+      <c r="AE7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2">
         <v>2.6</v>
@@ -1955,13 +2002,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL7" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM7" s="2">
         <v>2849</v>
@@ -1970,7 +2017,7 @@
         <v>699</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2" t="s">
@@ -1986,7 +2033,7 @@
         <v>87</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV7" s="2">
         <v>38</v>
@@ -2036,8 +2083,12 @@
       <c r="BO7" s="2">
         <v>3.1</v>
       </c>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
+      <c r="BP7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR7" s="2"/>
       <c r="BS7" s="2">
         <v>2</v>
@@ -2046,13 +2097,13 @@
         <v>38.9</v>
       </c>
       <c r="BU7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BV7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW7" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW7" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:75">
@@ -2132,8 +2183,12 @@
       <c r="AD8" s="2">
         <v>5.3</v>
       </c>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
+      <c r="AE8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
         <v>2.6</v>
@@ -2142,13 +2197,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM8" s="2">
         <v>2850</v>
@@ -2157,7 +2212,7 @@
         <v>699</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2" t="s">
@@ -2173,7 +2228,7 @@
         <v>87</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AV8" s="2">
         <v>35</v>
@@ -2223,8 +2278,12 @@
       <c r="BO8" s="2">
         <v>3.8</v>
       </c>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
+      <c r="BP8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ8" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR8" s="2"/>
       <c r="BS8" s="2">
         <v>2</v>
@@ -2233,13 +2292,13 @@
         <v>30.1</v>
       </c>
       <c r="BU8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BV8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW8" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:75">
@@ -2319,8 +2378,12 @@
       <c r="AD9" s="2">
         <v>4.7</v>
       </c>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
+      <c r="AE9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2">
         <v>2.4</v>
@@ -2329,13 +2392,13 @@
         <v>15</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL9" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM9" s="2">
         <v>2718</v>
@@ -2344,7 +2407,7 @@
         <v>699</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2" t="s">
@@ -2360,7 +2423,7 @@
         <v>87</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV9" s="2">
         <v>80</v>
@@ -2410,8 +2473,12 @@
       <c r="BO9" s="2">
         <v>5</v>
       </c>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
+      <c r="BP9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ9" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR9" s="2"/>
       <c r="BS9" s="2">
         <v>2.3</v>
@@ -2420,13 +2487,13 @@
         <v>36.9</v>
       </c>
       <c r="BU9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BV9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW9" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW9" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:75">
@@ -2506,8 +2573,12 @@
       <c r="AD10" s="2">
         <v>4.5</v>
       </c>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="AE10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2">
         <v>2.4</v>
@@ -2516,13 +2587,13 @@
         <v>16.8</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL10" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM10" s="2">
         <v>2580</v>
@@ -2531,7 +2602,7 @@
         <v>699</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2" t="s">
@@ -2547,7 +2618,7 @@
         <v>87</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV10" s="2">
         <v>80</v>
@@ -2597,8 +2668,12 @@
       <c r="BO10" s="2">
         <v>3.4</v>
       </c>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
+      <c r="BP10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ10" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR10" s="2"/>
       <c r="BS10" s="2">
         <v>1.7</v>
@@ -2607,13 +2682,13 @@
         <v>44.8</v>
       </c>
       <c r="BU10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BV10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW10" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW10" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:75">
@@ -2693,8 +2768,12 @@
       <c r="AD11" s="2">
         <v>4.5</v>
       </c>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
+      <c r="AE11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2">
         <v>2.7</v>
@@ -2703,13 +2782,13 @@
         <v>18.9</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL11" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM11" s="2">
         <v>2445</v>
@@ -2718,7 +2797,7 @@
         <v>699</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2" t="s">
@@ -2734,7 +2813,7 @@
         <v>87</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV11" s="2">
         <v>80</v>
@@ -2784,8 +2863,12 @@
       <c r="BO11" s="2">
         <v>2.4</v>
       </c>
-      <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
+      <c r="BP11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR11" s="2"/>
       <c r="BS11" s="2">
         <v>1.5</v>
@@ -2794,13 +2877,13 @@
         <v>50.4</v>
       </c>
       <c r="BU11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BV11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW11" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW11" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:75">
@@ -2880,8 +2963,12 @@
       <c r="AD12" s="2">
         <v>3.4</v>
       </c>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
+      <c r="AE12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2">
         <v>2</v>
@@ -2890,13 +2977,13 @@
         <v>16.9</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL12" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM12" s="2">
         <v>2313</v>
@@ -2905,7 +2992,7 @@
         <v>699</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2" t="s">
@@ -2921,7 +3008,7 @@
         <v>87</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV12" s="2">
         <v>79</v>
@@ -2971,8 +3058,12 @@
       <c r="BO12" s="2">
         <v>1.9</v>
       </c>
-      <c r="BP12" s="2"/>
-      <c r="BQ12" s="2"/>
+      <c r="BP12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ12" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR12" s="2"/>
       <c r="BS12" s="2">
         <v>1.6</v>
@@ -2981,13 +3072,13 @@
         <v>38.4</v>
       </c>
       <c r="BU12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BV12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW12" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW12" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:75">
@@ -3067,8 +3158,12 @@
       <c r="AD13" s="2">
         <v>3.7</v>
       </c>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
+      <c r="AE13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2">
         <v>2.8</v>
@@ -3077,13 +3172,13 @@
         <v>18.2</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL13" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AM13" s="2">
         <v>2209</v>
@@ -3092,7 +3187,7 @@
         <v>699</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2" t="s">
@@ -3108,7 +3203,7 @@
         <v>87</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV13" s="2">
         <v>72</v>
@@ -3158,8 +3253,12 @@
       <c r="BO13" s="2">
         <v>2.3</v>
       </c>
-      <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
+      <c r="BP13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="BR13" s="2"/>
       <c r="BS13" s="2">
         <v>2.1</v>
@@ -3168,13 +3267,13 @@
         <v>37.6</v>
       </c>
       <c r="BU13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BV13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW13" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BW13" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="110">
   <si>
     <t>seas_id_x</t>
   </si>
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>player_id_x</t>
@@ -130,6 +130,9 @@
     <t>triple_double_avg_x</t>
   </si>
   <si>
+    <t>calendar_year_x</t>
+  </si>
+  <si>
     <t>seas_id_y</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
   </si>
   <si>
     <t>triple_double_avg_y</t>
+  </si>
+  <si>
+    <t>calendar_year_y</t>
   </si>
   <si>
     <t>1969</t>
@@ -703,13 +709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW13"/>
+  <dimension ref="A1:BY13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,23 +941,31 @@
       <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:77">
       <c r="A2" s="2">
         <v>3513</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>610</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1935</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2">
         <v>34</v>
@@ -960,10 +974,10 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2">
         <v>77</v>
@@ -1014,10 +1028,10 @@
         <v>4.9</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2">
@@ -1027,126 +1041,136 @@
         <v>9.9</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM2" s="2">
+        <v>1969</v>
+      </c>
+      <c r="AN2" s="2">
         <v>3901</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AO2" s="2">
         <v>699</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR2" s="2">
+      <c r="AP2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" s="2">
         <v>32</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AT2" s="2">
         <v>10</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV2" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW2" s="2">
         <v>81</v>
       </c>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2">
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2">
         <v>45.3</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AZ2" s="2">
         <v>7.9</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BA2" s="2">
         <v>13.6</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BB2" s="2">
         <v>0.583</v>
       </c>
-      <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
-      <c r="BE2" s="2">
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2">
         <v>7.9</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BG2" s="2">
         <v>13.6</v>
-      </c>
-      <c r="BG2" s="2">
-        <v>0.583</v>
       </c>
       <c r="BH2" s="2">
         <v>0.583</v>
       </c>
       <c r="BI2" s="2">
+        <v>0.583</v>
+      </c>
+      <c r="BJ2" s="2">
         <v>4.7</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BK2" s="2">
         <v>10.6</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BL2" s="2">
         <v>0.446</v>
       </c>
-      <c r="BL2" s="2"/>
       <c r="BM2" s="2"/>
-      <c r="BN2" s="2">
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2">
         <v>21.1</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BP2" s="2">
         <v>4.5</v>
       </c>
-      <c r="BP2" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2">
         <v>1.8</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="BU2" s="2">
         <v>20.5</v>
       </c>
-      <c r="BU2" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="BV2" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>1969</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:77">
       <c r="A3" s="2">
         <v>3150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2">
         <v>610</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1935</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2">
         <v>33</v>
@@ -1155,10 +1179,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" s="2">
         <v>78</v>
@@ -1209,10 +1233,10 @@
         <v>4.6</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2">
@@ -1222,126 +1246,136 @@
         <v>12.5</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM3" s="2">
+        <v>1968</v>
+      </c>
+      <c r="AN3" s="2">
         <v>3485</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AO3" s="2">
         <v>699</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR3" s="2">
+      <c r="AP3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS3" s="2">
         <v>31</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AT3" s="2">
         <v>9</v>
       </c>
-      <c r="AT3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV3" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW3" s="2">
         <v>82</v>
       </c>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2">
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2">
         <v>46.8</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AZ3" s="2">
         <v>10</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="BA3" s="2">
         <v>16.8</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BB3" s="2">
         <v>0.595</v>
       </c>
-      <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
-      <c r="BE3" s="2">
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2">
         <v>10</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BG3" s="2">
         <v>16.8</v>
-      </c>
-      <c r="BG3" s="2">
-        <v>0.595</v>
       </c>
       <c r="BH3" s="2">
         <v>0.595</v>
       </c>
       <c r="BI3" s="2">
+        <v>0.595</v>
+      </c>
+      <c r="BJ3" s="2">
         <v>4.3</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BK3" s="2">
         <v>11.4</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BL3" s="2">
         <v>0.38</v>
       </c>
-      <c r="BL3" s="2"/>
       <c r="BM3" s="2"/>
-      <c r="BN3" s="2">
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2">
         <v>23.8</v>
       </c>
-      <c r="BO3" s="3">
+      <c r="BP3" s="3">
         <v>8.6</v>
       </c>
-      <c r="BP3" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2">
         <v>2</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="BU3" s="2">
         <v>24.3</v>
       </c>
-      <c r="BU3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="BV3" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>1968</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:77">
       <c r="A4" s="2">
         <v>2995</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2">
         <v>610</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1935</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2">
         <v>32</v>
@@ -1350,10 +1384,10 @@
         <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="2">
         <v>81</v>
@@ -1404,10 +1438,10 @@
         <v>5.8</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
@@ -1417,126 +1451,136 @@
         <v>13.3</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM4" s="2">
+        <v>1967</v>
+      </c>
+      <c r="AN4" s="2">
         <v>3118</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AO4" s="2">
         <v>699</v>
       </c>
-      <c r="AO4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR4" s="2">
+      <c r="AP4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS4" s="2">
         <v>30</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AT4" s="2">
         <v>8</v>
       </c>
-      <c r="AT4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV4" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" s="2">
         <v>81</v>
       </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2">
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2">
         <v>45.5</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AZ4" s="2">
         <v>9.699999999999999</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BA4" s="2">
         <v>14.2</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BB4" s="2">
         <v>0.6830000000000001</v>
       </c>
-      <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
-      <c r="BE4" s="2">
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2">
         <v>9.699999999999999</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BG4" s="2">
         <v>14.2</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>0.6830000000000001</v>
       </c>
       <c r="BH4" s="2">
         <v>0.6830000000000001</v>
       </c>
       <c r="BI4" s="2">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="BJ4" s="2">
         <v>4.8</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BK4" s="2">
         <v>10.8</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BL4" s="2">
         <v>0.441</v>
       </c>
-      <c r="BL4" s="2"/>
       <c r="BM4" s="2"/>
-      <c r="BN4" s="2">
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2">
         <v>24.2</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BP4" s="2">
         <v>7.8</v>
       </c>
-      <c r="BP4" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2">
         <v>1.8</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="BU4" s="2">
         <v>24.1</v>
       </c>
-      <c r="BU4" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BV4" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>1967</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:77">
       <c r="A5" s="2">
         <v>2865</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2">
         <v>610</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1935</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>31</v>
@@ -1545,10 +1589,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" s="2">
         <v>78</v>
@@ -1599,10 +1643,10 @@
         <v>4.8</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2">
@@ -1612,126 +1656,136 @@
         <v>12.9</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM5" s="2">
+        <v>1966</v>
+      </c>
+      <c r="AN5" s="2">
         <v>2984</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AO5" s="2">
         <v>699</v>
       </c>
-      <c r="AO5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR5" s="2">
+      <c r="AP5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS5" s="2">
         <v>29</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AT5" s="2">
         <v>7</v>
       </c>
-      <c r="AT5" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV5" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW5" s="2">
         <v>79</v>
       </c>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2">
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2">
         <v>47.3</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AZ5" s="2">
         <v>13.6</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="BA5" s="2">
         <v>25.2</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BB5" s="2">
         <v>0.54</v>
       </c>
-      <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
-      <c r="BE5" s="2">
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2">
         <v>13.6</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BG5" s="2">
         <v>25.2</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>0.54</v>
       </c>
       <c r="BH5" s="2">
         <v>0.54</v>
       </c>
       <c r="BI5" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="BJ5" s="2">
         <v>6.3</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BK5" s="2">
         <v>12.4</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="BL5" s="2">
         <v>0.513</v>
       </c>
-      <c r="BL5" s="2"/>
       <c r="BM5" s="2"/>
-      <c r="BN5" s="2">
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2">
         <v>24.6</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="BP5" s="2">
         <v>5.2</v>
       </c>
-      <c r="BP5" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2">
         <v>2.2</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="BU5" s="2">
         <v>33.5</v>
       </c>
-      <c r="BU5" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="BV5" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="BW5" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>1966</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:77">
       <c r="A6" s="2">
         <v>2735</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2">
         <v>610</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1935</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -1740,10 +1794,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2">
         <v>78</v>
@@ -1794,10 +1848,10 @@
         <v>5.3</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2">
@@ -1807,126 +1861,136 @@
         <v>14.1</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM6" s="2">
+        <v>1965</v>
+      </c>
+      <c r="AN6" s="2">
         <v>2848</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>699</v>
       </c>
-      <c r="AO6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR6" s="2">
+      <c r="AP6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS6" s="2">
         <v>28</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>6</v>
       </c>
-      <c r="AT6" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV6" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW6" s="2">
         <v>73</v>
       </c>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2">
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2">
         <v>45.2</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AZ6" s="2">
         <v>14.6</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BA6" s="2">
         <v>28.5</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BB6" s="2">
         <v>0.51</v>
       </c>
-      <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
-      <c r="BE6" s="2">
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2">
         <v>14.6</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BG6" s="2">
         <v>28.5</v>
-      </c>
-      <c r="BG6" s="2">
-        <v>0.51</v>
       </c>
       <c r="BH6" s="2">
         <v>0.51</v>
       </c>
       <c r="BI6" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="BJ6" s="2">
         <v>5.6</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BK6" s="2">
         <v>12.1</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BL6" s="2">
         <v>0.464</v>
       </c>
-      <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
-      <c r="BN6" s="2">
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2">
         <v>22.9</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BP6" s="2">
         <v>3.4</v>
       </c>
-      <c r="BP6" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2">
         <v>2</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="BU6" s="2">
         <v>34.7</v>
       </c>
-      <c r="BU6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="BV6" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BW6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>1965</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:77">
       <c r="A7" s="2">
         <v>2735</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2">
         <v>610</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1935</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -1935,10 +1999,10 @@
         <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="2">
         <v>78</v>
@@ -1989,10 +2053,10 @@
         <v>5.3</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2">
@@ -2002,126 +2066,136 @@
         <v>14.1</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM7" s="2">
+        <v>1965</v>
+      </c>
+      <c r="AN7" s="2">
         <v>2849</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>699</v>
       </c>
-      <c r="AO7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR7" s="2">
+      <c r="AP7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS7" s="2">
         <v>28</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AT7" s="2">
         <v>6</v>
       </c>
-      <c r="AT7" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV7" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW7" s="2">
         <v>38</v>
       </c>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2">
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2">
         <v>45.9</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AZ7" s="2">
         <v>16.7</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BA7" s="2">
         <v>33.6</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BB7" s="2">
         <v>0.499</v>
       </c>
-      <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
-      <c r="BE7" s="2">
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2">
         <v>16.7</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BG7" s="2">
         <v>33.6</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>0.499</v>
       </c>
       <c r="BH7" s="2">
         <v>0.499</v>
       </c>
       <c r="BI7" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="BJ7" s="2">
         <v>5.5</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BK7" s="2">
         <v>13.2</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BL7" s="2">
         <v>0.416</v>
       </c>
-      <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
-      <c r="BN7" s="2">
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2">
         <v>23.5</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BP7" s="2">
         <v>3.1</v>
       </c>
-      <c r="BP7" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2">
         <v>2</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="BU7" s="2">
         <v>38.9</v>
       </c>
-      <c r="BU7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="BV7" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BW7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>1965</v>
       </c>
     </row>
-    <row r="8" spans="1:75">
+    <row r="8" spans="1:77">
       <c r="A8" s="2">
         <v>2735</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2">
         <v>610</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1935</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -2130,10 +2204,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2">
         <v>78</v>
@@ -2184,10 +2258,10 @@
         <v>5.3</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
@@ -2197,126 +2271,136 @@
         <v>14.1</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM8" s="2">
+        <v>1965</v>
+      </c>
+      <c r="AN8" s="2">
         <v>2850</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AO8" s="2">
         <v>699</v>
       </c>
-      <c r="AO8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR8" s="2">
+      <c r="AP8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS8" s="2">
         <v>28</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AT8" s="2">
         <v>6</v>
       </c>
-      <c r="AT8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV8" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW8" s="2">
         <v>35</v>
       </c>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2">
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2">
         <v>44.5</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AZ8" s="2">
         <v>12.2</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="BA8" s="2">
         <v>23.1</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BB8" s="2">
         <v>0.528</v>
       </c>
-      <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
-      <c r="BE8" s="2">
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2">
         <v>12.2</v>
       </c>
-      <c r="BF8" s="2">
+      <c r="BG8" s="2">
         <v>23.1</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>0.528</v>
       </c>
       <c r="BH8" s="2">
         <v>0.528</v>
       </c>
       <c r="BI8" s="2">
+        <v>0.528</v>
+      </c>
+      <c r="BJ8" s="2">
         <v>5.7</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BK8" s="2">
         <v>10.9</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="BL8" s="2">
         <v>0.526</v>
       </c>
-      <c r="BL8" s="2"/>
       <c r="BM8" s="2"/>
-      <c r="BN8" s="2">
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2">
         <v>22.3</v>
       </c>
-      <c r="BO8" s="2">
+      <c r="BP8" s="2">
         <v>3.8</v>
       </c>
-      <c r="BP8" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2">
         <v>2</v>
       </c>
-      <c r="BT8" s="2">
+      <c r="BU8" s="2">
         <v>30.1</v>
       </c>
-      <c r="BU8" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="BV8" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BW8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>1965</v>
       </c>
     </row>
-    <row r="9" spans="1:75">
+    <row r="9" spans="1:77">
       <c r="A9" s="2">
         <v>2600</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2">
         <v>610</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1935</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="2">
         <v>29</v>
@@ -2325,10 +2409,10 @@
         <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2">
         <v>78</v>
@@ -2379,10 +2463,10 @@
         <v>4.7</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2">
@@ -2392,126 +2476,136 @@
         <v>15</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM9" s="2">
+        <v>1964</v>
+      </c>
+      <c r="AN9" s="2">
         <v>2718</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AO9" s="2">
         <v>699</v>
       </c>
-      <c r="AO9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR9" s="2">
+      <c r="AP9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS9" s="2">
         <v>27</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AT9" s="2">
         <v>5</v>
       </c>
-      <c r="AT9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV9" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW9" s="2">
         <v>80</v>
       </c>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2">
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2">
         <v>46.1</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="AZ9" s="2">
         <v>15.1</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="BA9" s="2">
         <v>28.7</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="BB9" s="2">
         <v>0.524</v>
       </c>
-      <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
-      <c r="BE9" s="2">
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2">
         <v>15.1</v>
       </c>
-      <c r="BF9" s="2">
+      <c r="BG9" s="2">
         <v>28.7</v>
-      </c>
-      <c r="BG9" s="2">
-        <v>0.524</v>
       </c>
       <c r="BH9" s="2">
         <v>0.524</v>
       </c>
       <c r="BI9" s="2">
+        <v>0.524</v>
+      </c>
+      <c r="BJ9" s="2">
         <v>6.8</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="BK9" s="2">
         <v>12.7</v>
       </c>
-      <c r="BK9" s="2">
+      <c r="BL9" s="2">
         <v>0.531</v>
       </c>
-      <c r="BL9" s="2"/>
       <c r="BM9" s="2"/>
-      <c r="BN9" s="2">
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2">
         <v>22.3</v>
       </c>
-      <c r="BO9" s="2">
+      <c r="BP9" s="2">
         <v>5</v>
       </c>
-      <c r="BP9" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2">
         <v>2.3</v>
       </c>
-      <c r="BT9" s="2">
+      <c r="BU9" s="2">
         <v>36.9</v>
       </c>
-      <c r="BU9" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="BV9" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BW9" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>1964</v>
       </c>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:77">
       <c r="A10" s="2">
         <v>2467</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2">
         <v>610</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1935</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" s="2">
         <v>28</v>
@@ -2520,10 +2614,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K10" s="2">
         <v>78</v>
@@ -2574,10 +2668,10 @@
         <v>4.5</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2">
@@ -2587,126 +2681,136 @@
         <v>16.8</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM10" s="2">
+        <v>1963</v>
+      </c>
+      <c r="AN10" s="2">
         <v>2580</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AO10" s="2">
         <v>699</v>
       </c>
-      <c r="AO10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR10" s="2">
+      <c r="AP10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS10" s="2">
         <v>26</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AT10" s="2">
         <v>4</v>
       </c>
-      <c r="AT10" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV10" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW10" s="2">
         <v>80</v>
       </c>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2">
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2">
         <v>47.6</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="AZ10" s="2">
         <v>18.3</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="BA10" s="2">
         <v>34.6</v>
       </c>
-      <c r="BA10" s="2">
+      <c r="BB10" s="2">
         <v>0.528</v>
       </c>
-      <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
-      <c r="BE10" s="2">
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2">
         <v>18.3</v>
       </c>
-      <c r="BF10" s="2">
+      <c r="BG10" s="2">
         <v>34.6</v>
-      </c>
-      <c r="BG10" s="2">
-        <v>0.528</v>
       </c>
       <c r="BH10" s="2">
         <v>0.528</v>
       </c>
       <c r="BI10" s="2">
+        <v>0.528</v>
+      </c>
+      <c r="BJ10" s="2">
         <v>8.300000000000001</v>
       </c>
-      <c r="BJ10" s="2">
+      <c r="BK10" s="2">
         <v>13.9</v>
       </c>
-      <c r="BK10" s="2">
+      <c r="BL10" s="2">
         <v>0.593</v>
       </c>
-      <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
-      <c r="BN10" s="2">
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2">
         <v>24.3</v>
       </c>
-      <c r="BO10" s="2">
+      <c r="BP10" s="2">
         <v>3.4</v>
       </c>
-      <c r="BP10" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2">
         <v>1.7</v>
       </c>
-      <c r="BT10" s="2">
+      <c r="BU10" s="2">
         <v>44.8</v>
       </c>
-      <c r="BU10" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="BV10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="BW10" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>1963</v>
       </c>
     </row>
-    <row r="11" spans="1:75">
+    <row r="11" spans="1:77">
       <c r="A11" s="2">
         <v>2332</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2">
         <v>610</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1935</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2">
         <v>27</v>
@@ -2715,10 +2819,10 @@
         <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K11" s="2">
         <v>76</v>
@@ -2769,10 +2873,10 @@
         <v>4.5</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2">
@@ -2782,126 +2886,136 @@
         <v>18.9</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM11" s="2">
+        <v>1962</v>
+      </c>
+      <c r="AN11" s="2">
         <v>2445</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AO11" s="2">
         <v>699</v>
       </c>
-      <c r="AO11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR11" s="2">
+      <c r="AP11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS11" s="2">
         <v>25</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AT11" s="2">
         <v>3</v>
       </c>
-      <c r="AT11" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV11" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW11" s="2">
         <v>80</v>
       </c>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2">
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2">
         <v>48.5</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="AZ11" s="2">
         <v>20</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="BA11" s="2">
         <v>39.5</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BB11" s="2">
         <v>0.506</v>
       </c>
-      <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
-      <c r="BE11" s="2">
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2">
         <v>20</v>
       </c>
-      <c r="BF11" s="2">
+      <c r="BG11" s="2">
         <v>39.5</v>
-      </c>
-      <c r="BG11" s="2">
-        <v>0.506</v>
       </c>
       <c r="BH11" s="2">
         <v>0.506</v>
       </c>
       <c r="BI11" s="2">
+        <v>0.506</v>
+      </c>
+      <c r="BJ11" s="2">
         <v>10.4</v>
       </c>
-      <c r="BJ11" s="2">
+      <c r="BK11" s="2">
         <v>17</v>
       </c>
-      <c r="BK11" s="2">
+      <c r="BL11" s="2">
         <v>0.613</v>
       </c>
-      <c r="BL11" s="2"/>
       <c r="BM11" s="2"/>
-      <c r="BN11" s="2">
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2">
         <v>25.7</v>
       </c>
-      <c r="BO11" s="2">
+      <c r="BP11" s="2">
         <v>2.4</v>
       </c>
-      <c r="BP11" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR11" s="2"/>
-      <c r="BS11" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2">
         <v>1.5</v>
       </c>
-      <c r="BT11" s="3">
+      <c r="BU11" s="3">
         <v>50.4</v>
       </c>
-      <c r="BU11" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="BV11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BW11" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>1962</v>
       </c>
     </row>
-    <row r="12" spans="1:75">
+    <row r="12" spans="1:77">
       <c r="A12" s="2">
         <v>2219</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2">
         <v>610</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1935</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" s="2">
         <v>26</v>
@@ -2910,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K12" s="2">
         <v>78</v>
@@ -2964,10 +3078,10 @@
         <v>3.4</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2">
@@ -2977,126 +3091,136 @@
         <v>16.9</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM12" s="2">
+        <v>1961</v>
+      </c>
+      <c r="AN12" s="2">
         <v>2313</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AO12" s="2">
         <v>699</v>
       </c>
-      <c r="AO12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR12" s="2">
+      <c r="AP12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS12" s="2">
         <v>24</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AT12" s="2">
         <v>2</v>
       </c>
-      <c r="AT12" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV12" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW12" s="2">
         <v>79</v>
       </c>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2">
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2">
         <v>47.8</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="AZ12" s="2">
         <v>15.8</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="BA12" s="2">
         <v>31.1</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BB12" s="2">
         <v>0.509</v>
       </c>
-      <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
-      <c r="BE12" s="2">
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2">
         <v>15.8</v>
       </c>
-      <c r="BF12" s="2">
+      <c r="BG12" s="2">
         <v>31.1</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>0.509</v>
       </c>
       <c r="BH12" s="2">
         <v>0.509</v>
       </c>
       <c r="BI12" s="2">
+        <v>0.509</v>
+      </c>
+      <c r="BJ12" s="2">
         <v>6.7</v>
       </c>
-      <c r="BJ12" s="2">
+      <c r="BK12" s="2">
         <v>13.3</v>
       </c>
-      <c r="BK12" s="2">
+      <c r="BL12" s="2">
         <v>0.504</v>
       </c>
-      <c r="BL12" s="2"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="3">
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="3">
         <v>27.2</v>
       </c>
-      <c r="BO12" s="2">
+      <c r="BP12" s="2">
         <v>1.9</v>
       </c>
-      <c r="BP12" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR12" s="2"/>
-      <c r="BS12" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2">
         <v>1.6</v>
       </c>
-      <c r="BT12" s="2">
+      <c r="BU12" s="2">
         <v>38.4</v>
       </c>
-      <c r="BU12" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="BV12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BW12" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY12" s="2">
+        <v>1961</v>
       </c>
     </row>
-    <row r="13" spans="1:75">
+    <row r="13" spans="1:77">
       <c r="A13" s="2">
         <v>2097</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2">
         <v>610</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1935</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2">
         <v>25</v>
@@ -3105,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" s="2">
         <v>74</v>
@@ -3159,10 +3283,10 @@
         <v>3.7</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2">
@@ -3172,108 +3296,116 @@
         <v>18.2</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AM13" s="2">
+        <v>1960</v>
+      </c>
+      <c r="AN13" s="2">
         <v>2209</v>
       </c>
-      <c r="AN13" s="2">
+      <c r="AO13" s="2">
         <v>699</v>
       </c>
-      <c r="AO13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR13" s="2">
+      <c r="AP13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>1937</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS13" s="2">
         <v>23</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AT13" s="2">
         <v>1</v>
       </c>
-      <c r="AT13" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AU13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV13" s="2">
+        <v>89</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW13" s="2">
         <v>72</v>
       </c>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2">
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2">
         <v>46.4</v>
       </c>
-      <c r="AY13" s="2">
+      <c r="AZ13" s="2">
         <v>14.8</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="BA13" s="2">
         <v>32.1</v>
       </c>
-      <c r="BA13" s="2">
+      <c r="BB13" s="2">
         <v>0.461</v>
       </c>
-      <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
-      <c r="BE13" s="2">
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2">
         <v>14.8</v>
       </c>
-      <c r="BF13" s="2">
+      <c r="BG13" s="2">
         <v>32.1</v>
-      </c>
-      <c r="BG13" s="2">
-        <v>0.461</v>
       </c>
       <c r="BH13" s="2">
         <v>0.461</v>
       </c>
       <c r="BI13" s="2">
+        <v>0.461</v>
+      </c>
+      <c r="BJ13" s="2">
         <v>8</v>
       </c>
-      <c r="BJ13" s="2">
+      <c r="BK13" s="2">
         <v>13.8</v>
       </c>
-      <c r="BK13" s="2">
+      <c r="BL13" s="2">
         <v>0.582</v>
       </c>
-      <c r="BL13" s="2"/>
       <c r="BM13" s="2"/>
-      <c r="BN13" s="2">
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2">
         <v>27</v>
       </c>
-      <c r="BO13" s="2">
+      <c r="BP13" s="2">
         <v>2.3</v>
       </c>
-      <c r="BP13" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BQ13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="2">
+        <v>91</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2">
         <v>2.1</v>
       </c>
-      <c r="BT13" s="2">
+      <c r="BU13" s="2">
         <v>37.6</v>
-      </c>
-      <c r="BU13" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="BV13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="BW13" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="BX13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>1960</v>
       </c>
     </row>
   </sheetData>

--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -367,18 +367,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -408,13 +402,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,2462 +941,2294 @@
       </c>
     </row>
     <row r="2" spans="1:77">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>3513</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>610</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1935</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>34</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>77</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>42.7</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>3.6</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>8.4</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>0.433</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>3.6</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>8.4</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>0.433</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <v>0.433</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2">
         <v>2.6</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2">
         <v>0.526</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2">
+      <c r="AC2">
         <v>19.3</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2">
         <v>4.9</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
+      <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2">
         <v>3</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2">
         <v>9.9</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" t="s">
         <v>102</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2">
         <v>1969</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2">
         <v>3901</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2">
         <v>699</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" t="s">
         <v>104</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2">
         <v>1937</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR2" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2">
         <v>32</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2">
         <v>10</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AU2" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" t="s">
         <v>105</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2">
         <v>81</v>
       </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2">
+      <c r="AY2">
         <v>45.3</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2">
         <v>7.9</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2">
         <v>13.6</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BB2">
         <v>0.583</v>
       </c>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2">
+      <c r="BF2">
         <v>7.9</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2">
         <v>13.6</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BH2">
         <v>0.583</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2">
         <v>0.583</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2">
         <v>4.7</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BK2">
         <v>10.6</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BL2">
         <v>0.446</v>
       </c>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2">
+      <c r="BO2">
         <v>21.1</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BP2">
         <v>4.5</v>
       </c>
-      <c r="BQ2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2">
+      <c r="BQ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT2">
         <v>1.8</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="BU2">
         <v>20.5</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BV2" t="s">
         <v>92</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BW2" t="s">
         <v>103</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BX2" t="s">
         <v>102</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="BY2">
         <v>1969</v>
       </c>
     </row>
     <row r="3" spans="1:77">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>3150</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>610</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1935</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>33</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>78</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>37.9</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>4.7</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>11</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>0.425</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>4.7</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <v>11</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>0.425</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <v>0.425</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3">
         <v>3.2</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3">
         <v>5.9</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3">
         <v>0.537</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2">
+      <c r="AC3">
         <v>18.6</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3">
         <v>4.6</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
+      <c r="AE3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3">
         <v>3.1</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3">
         <v>12.5</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" t="s">
         <v>103</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" t="s">
         <v>102</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3">
         <v>1968</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3">
         <v>3485</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3">
         <v>699</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP3" t="s">
         <v>104</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3">
         <v>1937</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" t="s">
         <v>88</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3">
         <v>31</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3">
         <v>9</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" t="s">
         <v>89</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3">
         <v>82</v>
       </c>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2">
+      <c r="AY3">
         <v>46.8</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3">
         <v>10</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BA3">
         <v>16.8</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BB3">
         <v>0.595</v>
       </c>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2">
+      <c r="BF3">
         <v>10</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BG3">
         <v>16.8</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BH3">
         <v>0.595</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BI3">
         <v>0.595</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BJ3">
         <v>4.3</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BK3">
         <v>11.4</v>
       </c>
-      <c r="BL3" s="2">
+      <c r="BL3">
         <v>0.38</v>
       </c>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2">
+      <c r="BO3">
         <v>23.8</v>
       </c>
-      <c r="BP3" s="3">
+      <c r="BP3">
         <v>8.6</v>
       </c>
-      <c r="BQ3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2">
+      <c r="BQ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT3">
         <v>2</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="BU3">
         <v>24.3</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BV3" t="s">
         <v>93</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BW3" t="s">
         <v>103</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BX3" t="s">
         <v>102</v>
       </c>
-      <c r="BY3" s="2">
+      <c r="BY3">
         <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:77">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2995</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>610</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1935</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>32</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>81</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>40.7</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>4.9</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>10.7</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>0.454</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>4.9</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4">
         <v>10.7</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4">
         <v>0.454</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4">
         <v>0.454</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4">
         <v>3.5</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4">
         <v>5.8</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4">
         <v>0.61</v>
       </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2">
+      <c r="AC4">
         <v>21</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4">
         <v>5.8</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4">
         <v>3.2</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4">
         <v>13.3</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" t="s">
         <v>94</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AK4" t="s">
         <v>103</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" t="s">
         <v>102</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4">
         <v>1967</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4">
         <v>3118</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4">
         <v>699</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AP4" t="s">
         <v>104</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4">
         <v>1937</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AR4" t="s">
         <v>88</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4">
         <v>30</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4">
         <v>8</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AU4" t="s">
         <v>89</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AV4" t="s">
         <v>106</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4">
         <v>81</v>
       </c>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2">
+      <c r="AY4">
         <v>45.5</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ4">
         <v>9.699999999999999</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BA4">
         <v>14.2</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BB4">
         <v>0.6830000000000001</v>
       </c>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2">
+      <c r="BF4">
         <v>9.699999999999999</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BG4">
         <v>14.2</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BH4">
         <v>0.6830000000000001</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BI4">
         <v>0.6830000000000001</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BJ4">
         <v>4.8</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BK4">
         <v>10.8</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BL4">
         <v>0.441</v>
       </c>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2">
+      <c r="BO4">
         <v>24.2</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="BP4">
         <v>7.8</v>
       </c>
-      <c r="BQ4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2">
+      <c r="BQ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT4">
         <v>1.8</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BU4">
         <v>24.1</v>
       </c>
-      <c r="BV4" s="2" t="s">
+      <c r="BV4" t="s">
         <v>94</v>
       </c>
-      <c r="BW4" s="2" t="s">
+      <c r="BW4" t="s">
         <v>103</v>
       </c>
-      <c r="BX4" s="2" t="s">
+      <c r="BX4" t="s">
         <v>102</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="BY4">
         <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>2865</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>610</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1935</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>31</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>78</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>43.4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>12.1</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>0.415</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>5</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5">
         <v>12.1</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>0.415</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5">
         <v>0.415</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5">
         <v>2.9</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5">
         <v>5.2</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5">
         <v>0.551</v>
       </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2">
+      <c r="AC5">
         <v>22.8</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5">
         <v>4.8</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
+      <c r="AE5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5">
         <v>2.8</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5">
         <v>12.9</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" t="s">
         <v>95</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK5" t="s">
         <v>103</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" t="s">
         <v>102</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5">
         <v>1966</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5">
         <v>2984</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5">
         <v>699</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" t="s">
         <v>104</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5">
         <v>1937</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AR5" t="s">
         <v>88</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5">
         <v>29</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5">
         <v>7</v>
       </c>
-      <c r="AU5" s="2" t="s">
+      <c r="AU5" t="s">
         <v>89</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AV5" t="s">
         <v>106</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AW5">
         <v>79</v>
       </c>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2">
+      <c r="AY5">
         <v>47.3</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="AZ5">
         <v>13.6</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BA5">
         <v>25.2</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BB5">
         <v>0.54</v>
       </c>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2">
+      <c r="BF5">
         <v>13.6</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BG5">
         <v>25.2</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BH5">
         <v>0.54</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BI5">
         <v>0.54</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BJ5">
         <v>6.3</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="BK5">
         <v>12.4</v>
       </c>
-      <c r="BL5" s="2">
+      <c r="BL5">
         <v>0.513</v>
       </c>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2">
+      <c r="BO5">
         <v>24.6</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="BP5">
         <v>5.2</v>
       </c>
-      <c r="BQ5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2">
+      <c r="BQ5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT5">
         <v>2.2</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="BU5">
         <v>33.5</v>
       </c>
-      <c r="BV5" s="2" t="s">
+      <c r="BV5" t="s">
         <v>95</v>
       </c>
-      <c r="BW5" s="2" t="s">
+      <c r="BW5" t="s">
         <v>103</v>
       </c>
-      <c r="BX5" s="2" t="s">
+      <c r="BX5" t="s">
         <v>102</v>
       </c>
-      <c r="BY5" s="2">
+      <c r="BY5">
         <v>1966</v>
       </c>
     </row>
     <row r="6" spans="1:77">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>2735</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>610</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>1935</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>78</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>44.4</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>5.5</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>12.6</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>0.438</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>5.5</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6">
         <v>12.6</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6">
         <v>0.438</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6">
         <v>0.438</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6">
         <v>3.1</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6">
         <v>5.5</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6">
         <v>0.573</v>
       </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2">
+      <c r="AC6">
         <v>24.1</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>5.3</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2">
+      <c r="AE6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6">
         <v>2.6</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6">
         <v>14.1</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AJ6" t="s">
         <v>96</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AK6" t="s">
         <v>103</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" t="s">
         <v>102</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6">
         <v>1965</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6">
         <v>2848</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6">
         <v>699</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AP6" t="s">
         <v>104</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6">
         <v>1937</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" t="s">
         <v>88</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6">
         <v>28</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6">
         <v>6</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AU6" t="s">
         <v>89</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AV6" t="s">
         <v>107</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AW6">
         <v>73</v>
       </c>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2">
+      <c r="AY6">
         <v>45.2</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6">
         <v>14.6</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BA6">
         <v>28.5</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BB6">
         <v>0.51</v>
       </c>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2">
+      <c r="BF6">
         <v>14.6</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BG6">
         <v>28.5</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BH6">
         <v>0.51</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BI6">
         <v>0.51</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BJ6">
         <v>5.6</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BK6">
         <v>12.1</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="BL6">
         <v>0.464</v>
       </c>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2">
+      <c r="BO6">
         <v>22.9</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="BP6">
         <v>3.4</v>
       </c>
-      <c r="BQ6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2">
+      <c r="BQ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT6">
         <v>2</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="BU6">
         <v>34.7</v>
       </c>
-      <c r="BV6" s="2" t="s">
+      <c r="BV6" t="s">
         <v>96</v>
       </c>
-      <c r="BW6" s="2" t="s">
+      <c r="BW6" t="s">
         <v>103</v>
       </c>
-      <c r="BX6" s="2" t="s">
+      <c r="BX6" t="s">
         <v>102</v>
       </c>
-      <c r="BY6" s="2">
+      <c r="BY6">
         <v>1965</v>
       </c>
     </row>
     <row r="7" spans="1:77">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>2735</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>610</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>1935</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>9</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>78</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>44.4</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>5.5</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>12.6</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>0.438</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
+      <c r="T7">
         <v>5.5</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7">
         <v>12.6</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7">
         <v>0.438</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7">
         <v>0.438</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7">
         <v>3.1</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7">
         <v>5.5</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7">
         <v>0.573</v>
       </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2">
+      <c r="AC7">
         <v>24.1</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>5.3</v>
       </c>
-      <c r="AE7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
+      <c r="AE7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7">
         <v>2.6</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7">
         <v>14.1</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" t="s">
         <v>96</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" t="s">
         <v>103</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" t="s">
         <v>102</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7">
         <v>1965</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7">
         <v>2849</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7">
         <v>699</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AP7" t="s">
         <v>104</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7">
         <v>1937</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AR7" t="s">
         <v>88</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS7">
         <v>28</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AT7">
         <v>6</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AU7" t="s">
         <v>89</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" t="s">
         <v>108</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AW7">
         <v>38</v>
       </c>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2">
+      <c r="AY7">
         <v>45.9</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7">
         <v>16.7</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BA7">
         <v>33.6</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BB7">
         <v>0.499</v>
       </c>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2">
+      <c r="BF7">
         <v>16.7</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BG7">
         <v>33.6</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BH7">
         <v>0.499</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BI7">
         <v>0.499</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BJ7">
         <v>5.5</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BK7">
         <v>13.2</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BL7">
         <v>0.416</v>
       </c>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2">
+      <c r="BO7">
         <v>23.5</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BP7">
         <v>3.1</v>
       </c>
-      <c r="BQ7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS7" s="2"/>
-      <c r="BT7" s="2">
+      <c r="BQ7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT7">
         <v>2</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BU7">
         <v>38.9</v>
       </c>
-      <c r="BV7" s="2" t="s">
+      <c r="BV7" t="s">
         <v>96</v>
       </c>
-      <c r="BW7" s="2" t="s">
+      <c r="BW7" t="s">
         <v>103</v>
       </c>
-      <c r="BX7" s="2" t="s">
+      <c r="BX7" t="s">
         <v>102</v>
       </c>
-      <c r="BY7" s="2">
+      <c r="BY7">
         <v>1965</v>
       </c>
     </row>
     <row r="8" spans="1:77">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>2735</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>610</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>1935</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>78</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>44.4</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>5.5</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>12.6</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>0.438</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
+      <c r="T8">
         <v>5.5</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8">
         <v>12.6</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8">
         <v>0.438</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8">
         <v>0.438</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8">
         <v>3.1</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8">
         <v>5.5</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8">
         <v>0.573</v>
       </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2">
+      <c r="AC8">
         <v>24.1</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>5.3</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2">
+      <c r="AE8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH8">
         <v>2.6</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8">
         <v>14.1</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" t="s">
         <v>96</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK8" t="s">
         <v>103</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" t="s">
         <v>102</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8">
         <v>1965</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8">
         <v>2850</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8">
         <v>699</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AP8" t="s">
         <v>104</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8">
         <v>1937</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AR8" t="s">
         <v>88</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8">
         <v>28</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AT8">
         <v>6</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AU8" t="s">
         <v>89</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AV8" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AW8">
         <v>35</v>
       </c>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2">
+      <c r="AY8">
         <v>44.5</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ8">
         <v>12.2</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BA8">
         <v>23.1</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BB8">
         <v>0.528</v>
       </c>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2">
+      <c r="BF8">
         <v>12.2</v>
       </c>
-      <c r="BG8" s="2">
+      <c r="BG8">
         <v>23.1</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="BH8">
         <v>0.528</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BI8">
         <v>0.528</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BJ8">
         <v>5.7</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="BK8">
         <v>10.9</v>
       </c>
-      <c r="BL8" s="2">
+      <c r="BL8">
         <v>0.526</v>
       </c>
-      <c r="BM8" s="2"/>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2">
+      <c r="BO8">
         <v>22.3</v>
       </c>
-      <c r="BP8" s="2">
+      <c r="BP8">
         <v>3.8</v>
       </c>
-      <c r="BQ8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS8" s="2"/>
-      <c r="BT8" s="2">
+      <c r="BQ8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT8">
         <v>2</v>
       </c>
-      <c r="BU8" s="2">
+      <c r="BU8">
         <v>30.1</v>
       </c>
-      <c r="BV8" s="2" t="s">
+      <c r="BV8" t="s">
         <v>96</v>
       </c>
-      <c r="BW8" s="2" t="s">
+      <c r="BW8" t="s">
         <v>103</v>
       </c>
-      <c r="BX8" s="2" t="s">
+      <c r="BX8" t="s">
         <v>102</v>
       </c>
-      <c r="BY8" s="2">
+      <c r="BY8">
         <v>1965</v>
       </c>
     </row>
     <row r="9" spans="1:77">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>2600</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>610</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1935</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>29</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>78</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>44.6</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>13.8</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9">
         <v>0.433</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
+      <c r="T9">
         <v>6</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9">
         <v>13.8</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9">
         <v>0.433</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9">
         <v>0.433</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9">
         <v>3</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9">
         <v>5.5</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9">
         <v>0.55</v>
       </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="3">
+      <c r="AC9">
         <v>24.7</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>4.7</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2">
+      <c r="AE9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9">
         <v>2.4</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI9">
         <v>15</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AJ9" t="s">
         <v>97</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AK9" t="s">
         <v>103</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AL9" t="s">
         <v>102</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9">
         <v>1964</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN9">
         <v>2718</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AO9">
         <v>699</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AP9" t="s">
         <v>104</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9">
         <v>1937</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AR9" t="s">
         <v>88</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AS9">
         <v>27</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="AT9">
         <v>5</v>
       </c>
-      <c r="AU9" s="2" t="s">
+      <c r="AU9" t="s">
         <v>89</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AV9" t="s">
         <v>108</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="AW9">
         <v>80</v>
       </c>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2">
+      <c r="AY9">
         <v>46.1</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="AZ9">
         <v>15.1</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="BA9">
         <v>28.7</v>
       </c>
-      <c r="BB9" s="2">
+      <c r="BB9">
         <v>0.524</v>
       </c>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2">
+      <c r="BF9">
         <v>15.1</v>
       </c>
-      <c r="BG9" s="2">
+      <c r="BG9">
         <v>28.7</v>
       </c>
-      <c r="BH9" s="2">
+      <c r="BH9">
         <v>0.524</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BI9">
         <v>0.524</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="BJ9">
         <v>6.8</v>
       </c>
-      <c r="BK9" s="2">
+      <c r="BK9">
         <v>12.7</v>
       </c>
-      <c r="BL9" s="2">
+      <c r="BL9">
         <v>0.531</v>
       </c>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2">
+      <c r="BO9">
         <v>22.3</v>
       </c>
-      <c r="BP9" s="2">
+      <c r="BP9">
         <v>5</v>
       </c>
-      <c r="BQ9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2">
+      <c r="BQ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT9">
         <v>2.3</v>
       </c>
-      <c r="BU9" s="2">
+      <c r="BU9">
         <v>36.9</v>
       </c>
-      <c r="BV9" s="2" t="s">
+      <c r="BV9" t="s">
         <v>97</v>
       </c>
-      <c r="BW9" s="2" t="s">
+      <c r="BW9" t="s">
         <v>103</v>
       </c>
-      <c r="BX9" s="2" t="s">
+      <c r="BX9" t="s">
         <v>102</v>
       </c>
-      <c r="BY9" s="2">
+      <c r="BY9">
         <v>1964</v>
       </c>
     </row>
     <row r="10" spans="1:77">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>2467</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>610</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>1935</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>28</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>78</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>44.9</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>6.6</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>15.2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>0.432</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
+      <c r="T10">
         <v>6.6</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10">
         <v>15.2</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10">
         <v>0.432</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10">
         <v>0.432</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10">
         <v>3.7</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10">
         <v>6.6</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10">
         <v>0.555</v>
       </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2">
+      <c r="AC10">
         <v>23.6</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>4.5</v>
       </c>
-      <c r="AE10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2">
+      <c r="AE10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10">
         <v>2.4</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AI10">
         <v>16.8</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AJ10" t="s">
         <v>98</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AK10" t="s">
         <v>103</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" t="s">
         <v>102</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AM10">
         <v>1963</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AN10">
         <v>2580</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AO10">
         <v>699</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" t="s">
         <v>104</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10">
         <v>1937</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AR10" t="s">
         <v>88</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AS10">
         <v>26</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="AT10">
         <v>4</v>
       </c>
-      <c r="AU10" s="2" t="s">
+      <c r="AU10" t="s">
         <v>89</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AV10" t="s">
         <v>108</v>
       </c>
-      <c r="AW10" s="2">
+      <c r="AW10">
         <v>80</v>
       </c>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2">
+      <c r="AY10">
         <v>47.6</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="AZ10">
         <v>18.3</v>
       </c>
-      <c r="BA10" s="2">
+      <c r="BA10">
         <v>34.6</v>
       </c>
-      <c r="BB10" s="2">
+      <c r="BB10">
         <v>0.528</v>
       </c>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2">
+      <c r="BF10">
         <v>18.3</v>
       </c>
-      <c r="BG10" s="2">
+      <c r="BG10">
         <v>34.6</v>
       </c>
-      <c r="BH10" s="2">
+      <c r="BH10">
         <v>0.528</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BI10">
         <v>0.528</v>
       </c>
-      <c r="BJ10" s="2">
+      <c r="BJ10">
         <v>8.300000000000001</v>
       </c>
-      <c r="BK10" s="2">
+      <c r="BK10">
         <v>13.9</v>
       </c>
-      <c r="BL10" s="2">
+      <c r="BL10">
         <v>0.593</v>
       </c>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2">
+      <c r="BO10">
         <v>24.3</v>
       </c>
-      <c r="BP10" s="2">
+      <c r="BP10">
         <v>3.4</v>
       </c>
-      <c r="BQ10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2">
+      <c r="BQ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT10">
         <v>1.7</v>
       </c>
-      <c r="BU10" s="2">
+      <c r="BU10">
         <v>44.8</v>
       </c>
-      <c r="BV10" s="2" t="s">
+      <c r="BV10" t="s">
         <v>98</v>
       </c>
-      <c r="BW10" s="2" t="s">
+      <c r="BW10" t="s">
         <v>103</v>
       </c>
-      <c r="BX10" s="2" t="s">
+      <c r="BX10" t="s">
         <v>102</v>
       </c>
-      <c r="BY10" s="2">
+      <c r="BY10">
         <v>1963</v>
       </c>
     </row>
     <row r="11" spans="1:77">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>2332</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>610</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>1935</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>27</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>76</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>45.2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>7.6</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>16.6</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>0.457</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2">
+      <c r="T11">
         <v>7.6</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11">
         <v>16.6</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11">
         <v>0.457</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11">
         <v>0.457</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11">
         <v>3.8</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11">
         <v>6.3</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11">
         <v>0.595</v>
       </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2">
+      <c r="AC11">
         <v>23.6</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>4.5</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2">
+      <c r="AE11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11">
         <v>2.7</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11">
         <v>18.9</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AJ11" t="s">
         <v>99</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AK11" t="s">
         <v>103</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AL11" t="s">
         <v>102</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11">
         <v>1962</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AN11">
         <v>2445</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AO11">
         <v>699</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AP11" t="s">
         <v>104</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11">
         <v>1937</v>
       </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AR11" t="s">
         <v>88</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11">
         <v>25</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AT11">
         <v>3</v>
       </c>
-      <c r="AU11" s="2" t="s">
+      <c r="AU11" t="s">
         <v>89</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AV11" t="s">
         <v>109</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="AW11">
         <v>80</v>
       </c>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2">
+      <c r="AY11">
         <v>48.5</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="AZ11">
         <v>20</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BA11">
         <v>39.5</v>
       </c>
-      <c r="BB11" s="2">
+      <c r="BB11">
         <v>0.506</v>
       </c>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2">
+      <c r="BF11">
         <v>20</v>
       </c>
-      <c r="BG11" s="2">
+      <c r="BG11">
         <v>39.5</v>
       </c>
-      <c r="BH11" s="2">
+      <c r="BH11">
         <v>0.506</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="BI11">
         <v>0.506</v>
       </c>
-      <c r="BJ11" s="2">
+      <c r="BJ11">
         <v>10.4</v>
       </c>
-      <c r="BK11" s="2">
+      <c r="BK11">
         <v>17</v>
       </c>
-      <c r="BL11" s="2">
+      <c r="BL11">
         <v>0.613</v>
       </c>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2">
+      <c r="BO11">
         <v>25.7</v>
       </c>
-      <c r="BP11" s="2">
+      <c r="BP11">
         <v>2.4</v>
       </c>
-      <c r="BQ11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS11" s="2"/>
-      <c r="BT11" s="2">
+      <c r="BQ11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT11">
         <v>1.5</v>
       </c>
-      <c r="BU11" s="3">
+      <c r="BU11">
         <v>50.4</v>
       </c>
-      <c r="BV11" s="2" t="s">
+      <c r="BV11" t="s">
         <v>99</v>
       </c>
-      <c r="BW11" s="2" t="s">
+      <c r="BW11" t="s">
         <v>103</v>
       </c>
-      <c r="BX11" s="2" t="s">
+      <c r="BX11" t="s">
         <v>102</v>
       </c>
-      <c r="BY11" s="2">
+      <c r="BY11">
         <v>1962</v>
       </c>
     </row>
     <row r="12" spans="1:77">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>2219</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>610</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>1935</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>26</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>78</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>44.3</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>6.8</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>16</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>0.426</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
+      <c r="T12">
         <v>6.8</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12">
         <v>16</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12">
         <v>0.426</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12">
         <v>0.426</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12">
         <v>3.3</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12">
         <v>6</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12">
         <v>0.55</v>
       </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2">
+      <c r="AC12">
         <v>23.9</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>3.4</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2">
+      <c r="AE12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH12">
         <v>2</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12">
         <v>16.9</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" t="s">
         <v>100</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AK12" t="s">
         <v>103</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AL12" t="s">
         <v>102</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AM12">
         <v>1961</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AN12">
         <v>2313</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AO12">
         <v>699</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AP12" t="s">
         <v>104</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AQ12">
         <v>1937</v>
       </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AR12" t="s">
         <v>88</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12">
         <v>24</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AT12">
         <v>2</v>
       </c>
-      <c r="AU12" s="2" t="s">
+      <c r="AU12" t="s">
         <v>89</v>
       </c>
-      <c r="AV12" s="2" t="s">
+      <c r="AV12" t="s">
         <v>109</v>
       </c>
-      <c r="AW12" s="2">
+      <c r="AW12">
         <v>79</v>
       </c>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2">
+      <c r="AY12">
         <v>47.8</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="AZ12">
         <v>15.8</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BA12">
         <v>31.1</v>
       </c>
-      <c r="BB12" s="2">
+      <c r="BB12">
         <v>0.509</v>
       </c>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2">
+      <c r="BF12">
         <v>15.8</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BG12">
         <v>31.1</v>
       </c>
-      <c r="BH12" s="2">
+      <c r="BH12">
         <v>0.509</v>
       </c>
-      <c r="BI12" s="2">
+      <c r="BI12">
         <v>0.509</v>
       </c>
-      <c r="BJ12" s="2">
+      <c r="BJ12">
         <v>6.7</v>
       </c>
-      <c r="BK12" s="2">
+      <c r="BK12">
         <v>13.3</v>
       </c>
-      <c r="BL12" s="2">
+      <c r="BL12">
         <v>0.504</v>
       </c>
-      <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
-      <c r="BO12" s="3">
+      <c r="BO12">
         <v>27.2</v>
       </c>
-      <c r="BP12" s="2">
+      <c r="BP12">
         <v>1.9</v>
       </c>
-      <c r="BQ12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS12" s="2"/>
-      <c r="BT12" s="2">
+      <c r="BQ12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT12">
         <v>1.6</v>
       </c>
-      <c r="BU12" s="2">
+      <c r="BU12">
         <v>38.4</v>
       </c>
-      <c r="BV12" s="2" t="s">
+      <c r="BV12" t="s">
         <v>100</v>
       </c>
-      <c r="BW12" s="2" t="s">
+      <c r="BW12" t="s">
         <v>103</v>
       </c>
-      <c r="BX12" s="2" t="s">
+      <c r="BX12" t="s">
         <v>102</v>
       </c>
-      <c r="BY12" s="2">
+      <c r="BY12">
         <v>1961</v>
       </c>
     </row>
     <row r="13" spans="1:77">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>2097</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>610</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>1935</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>25</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>74</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>42.5</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>7.5</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>16.1</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13">
         <v>0.467</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
+      <c r="T13">
         <v>7.5</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13">
         <v>16.1</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13">
         <v>0.467</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13">
         <v>0.467</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13">
         <v>3.2</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13">
         <v>5.3</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13">
         <v>0.612</v>
       </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2">
+      <c r="AC13">
         <v>24</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>3.7</v>
       </c>
-      <c r="AE13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2">
+      <c r="AE13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13">
         <v>2.8</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AI13">
         <v>18.2</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AJ13" t="s">
         <v>101</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AK13" t="s">
         <v>103</v>
       </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AL13" t="s">
         <v>102</v>
       </c>
-      <c r="AM13" s="2">
+      <c r="AM13">
         <v>1960</v>
       </c>
-      <c r="AN13" s="2">
+      <c r="AN13">
         <v>2209</v>
       </c>
-      <c r="AO13" s="2">
+      <c r="AO13">
         <v>699</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AP13" t="s">
         <v>104</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AQ13">
         <v>1937</v>
       </c>
-      <c r="AR13" s="2" t="s">
+      <c r="AR13" t="s">
         <v>88</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AS13">
         <v>23</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AT13">
         <v>1</v>
       </c>
-      <c r="AU13" s="2" t="s">
+      <c r="AU13" t="s">
         <v>89</v>
       </c>
-      <c r="AV13" s="2" t="s">
+      <c r="AV13" t="s">
         <v>109</v>
       </c>
-      <c r="AW13" s="2">
+      <c r="AW13">
         <v>72</v>
       </c>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2">
+      <c r="AY13">
         <v>46.4</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="AZ13">
         <v>14.8</v>
       </c>
-      <c r="BA13" s="2">
+      <c r="BA13">
         <v>32.1</v>
       </c>
-      <c r="BB13" s="2">
+      <c r="BB13">
         <v>0.461</v>
       </c>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2">
+      <c r="BF13">
         <v>14.8</v>
       </c>
-      <c r="BG13" s="2">
+      <c r="BG13">
         <v>32.1</v>
       </c>
-      <c r="BH13" s="2">
+      <c r="BH13">
         <v>0.461</v>
       </c>
-      <c r="BI13" s="2">
+      <c r="BI13">
         <v>0.461</v>
       </c>
-      <c r="BJ13" s="2">
+      <c r="BJ13">
         <v>8</v>
       </c>
-      <c r="BK13" s="2">
+      <c r="BK13">
         <v>13.8</v>
       </c>
-      <c r="BL13" s="2">
+      <c r="BL13">
         <v>0.582</v>
       </c>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2">
+      <c r="BO13">
         <v>27</v>
       </c>
-      <c r="BP13" s="2">
+      <c r="BP13">
         <v>2.3</v>
       </c>
-      <c r="BQ13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS13" s="2"/>
-      <c r="BT13" s="2">
+      <c r="BQ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT13">
         <v>2.1</v>
       </c>
-      <c r="BU13" s="2">
+      <c r="BU13">
         <v>37.6</v>
       </c>
-      <c r="BV13" s="2" t="s">
+      <c r="BV13" t="s">
         <v>101</v>
       </c>
-      <c r="BW13" s="2" t="s">
+      <c r="BW13" t="s">
         <v>103</v>
       </c>
-      <c r="BX13" s="2" t="s">
+      <c r="BX13" t="s">
         <v>102</v>
       </c>
-      <c r="BY13" s="2">
+      <c r="BY13">
         <v>1960</v>
       </c>
     </row>

--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -954,13 +954,13 @@
         <v>87</v>
       </c>
       <c r="E2">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F2" t="s">
         <v>88</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1047,13 +1047,13 @@
         <v>104</v>
       </c>
       <c r="AQ2">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR2" t="s">
         <v>88</v>
       </c>
       <c r="AS2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AT2">
         <v>10</v>
@@ -1145,13 +1145,13 @@
         <v>87</v>
       </c>
       <c r="E3">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F3" t="s">
         <v>88</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -1238,13 +1238,13 @@
         <v>104</v>
       </c>
       <c r="AQ3">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR3" t="s">
         <v>88</v>
       </c>
       <c r="AS3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AT3">
         <v>9</v>
@@ -1336,13 +1336,13 @@
         <v>87</v>
       </c>
       <c r="E4">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -1429,13 +1429,13 @@
         <v>104</v>
       </c>
       <c r="AQ4">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR4" t="s">
         <v>88</v>
       </c>
       <c r="AS4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AT4">
         <v>8</v>
@@ -1527,13 +1527,13 @@
         <v>87</v>
       </c>
       <c r="E5">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -1620,13 +1620,13 @@
         <v>104</v>
       </c>
       <c r="AQ5">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR5" t="s">
         <v>88</v>
       </c>
       <c r="AS5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT5">
         <v>7</v>
@@ -1718,13 +1718,13 @@
         <v>87</v>
       </c>
       <c r="E6">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F6" t="s">
         <v>88</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1811,13 +1811,13 @@
         <v>104</v>
       </c>
       <c r="AQ6">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR6" t="s">
         <v>88</v>
       </c>
       <c r="AS6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT6">
         <v>6</v>
@@ -1909,13 +1909,13 @@
         <v>87</v>
       </c>
       <c r="E7">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -2002,13 +2002,13 @@
         <v>104</v>
       </c>
       <c r="AQ7">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>
       </c>
       <c r="AS7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT7">
         <v>6</v>
@@ -2100,13 +2100,13 @@
         <v>87</v>
       </c>
       <c r="E8">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>9</v>
@@ -2193,13 +2193,13 @@
         <v>104</v>
       </c>
       <c r="AQ8">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR8" t="s">
         <v>88</v>
       </c>
       <c r="AS8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT8">
         <v>6</v>
@@ -2291,13 +2291,13 @@
         <v>87</v>
       </c>
       <c r="E9">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F9" t="s">
         <v>88</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -2384,13 +2384,13 @@
         <v>104</v>
       </c>
       <c r="AQ9">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR9" t="s">
         <v>88</v>
       </c>
       <c r="AS9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT9">
         <v>5</v>
@@ -2482,13 +2482,13 @@
         <v>87</v>
       </c>
       <c r="E10">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -2575,13 +2575,13 @@
         <v>104</v>
       </c>
       <c r="AQ10">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR10" t="s">
         <v>88</v>
       </c>
       <c r="AS10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT10">
         <v>4</v>
@@ -2673,13 +2673,13 @@
         <v>87</v>
       </c>
       <c r="E11">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -2766,13 +2766,13 @@
         <v>104</v>
       </c>
       <c r="AQ11">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR11" t="s">
         <v>88</v>
       </c>
       <c r="AS11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -2864,13 +2864,13 @@
         <v>87</v>
       </c>
       <c r="E12">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F12" t="s">
         <v>88</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -2957,13 +2957,13 @@
         <v>104</v>
       </c>
       <c r="AQ12">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR12" t="s">
         <v>88</v>
       </c>
       <c r="AS12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT12">
         <v>2</v>
@@ -3055,13 +3055,13 @@
         <v>87</v>
       </c>
       <c r="E13">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -3148,13 +3148,13 @@
         <v>104</v>
       </c>
       <c r="AQ13">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AR13" t="s">
         <v>88</v>
       </c>
       <c r="AS13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT13">
         <v>1</v>

--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id_x</t>
+    <t>player_id_x_x</t>
   </si>
   <si>
     <t>player_x</t>
   </si>
   <si>
-    <t>birth_year_x</t>
+    <t>birth_year_x_x</t>
   </si>
   <si>
     <t>pos_x</t>
@@ -136,13 +136,13 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>player_id_y</t>
+    <t>player_id_x_y</t>
   </si>
   <si>
     <t>player_y</t>
   </si>
   <si>
-    <t>birth_year_y</t>
+    <t>birth_year_x_y</t>
   </si>
   <si>
     <t>pos_y</t>

--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -247,36 +247,36 @@
     <t>calendar_year_y</t>
   </si>
   <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
     <t>1962</t>
   </si>
   <si>
+    <t>1969</t>
+  </si>
+  <si>
     <t>1964</t>
   </si>
   <si>
     <t>1963</t>
   </si>
   <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
     <t>1968</t>
   </si>
   <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
     <t>Bill Russell</t>
   </si>
   <si>
@@ -292,36 +292,36 @@
     <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
+    <t>1964-65</t>
+  </si>
+  <si>
+    <t>1960-61</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1965-66</t>
+  </si>
+  <si>
     <t>1960-62</t>
   </si>
   <si>
+    <t>1968-69</t>
+  </si>
+  <si>
     <t>1963-64</t>
   </si>
   <si>
     <t>1962-63</t>
   </si>
   <si>
-    <t>1964-65</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1960-61</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
     <t>1967-68</t>
   </si>
   <si>
-    <t>1959-60</t>
-  </si>
-  <si>
-    <t>1968-69</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -331,16 +331,16 @@
     <t>Wilt Chamberlain</t>
   </si>
   <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>SFW</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>PHW</t>
-  </si>
-  <si>
-    <t>SFW</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>TOT</t>
   </si>
   <si>
     <t>LAL</t>
@@ -950,7 +950,7 @@
     </row>
     <row r="2" spans="1:77">
       <c r="A2" s="2">
-        <v>2332</v>
+        <v>2735</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="G2" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>89</v>
@@ -980,52 +980,52 @@
         <v>90</v>
       </c>
       <c r="K2" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2">
-        <v>45.2</v>
+        <v>44.4</v>
       </c>
       <c r="N2" s="2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="O2" s="2">
-        <v>16.6</v>
+        <v>12.6</v>
       </c>
       <c r="P2" s="2">
-        <v>0.457</v>
+        <v>0.438</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="U2" s="2">
-        <v>16.6</v>
+        <v>12.6</v>
       </c>
       <c r="V2" s="2">
-        <v>0.457</v>
+        <v>0.438</v>
       </c>
       <c r="W2" s="2">
-        <v>0.457</v>
+        <v>0.438</v>
       </c>
       <c r="X2" s="2">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Y2" s="2">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" s="2">
-        <v>0.595</v>
+        <v>0.573</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="AD2" s="2">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>91</v>
@@ -1035,10 +1035,10 @@
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>18.9</v>
+        <v>2.6</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>14.1</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>92</v>
@@ -1050,13 +1050,13 @@
         <v>103</v>
       </c>
       <c r="AM2" s="2">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="AN2" s="2">
-        <v>2445</v>
+        <v>2848</v>
       </c>
       <c r="AO2" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>104</v>
@@ -1068,10 +1068,10 @@
         <v>88</v>
       </c>
       <c r="AS2" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AT2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>89</v>
@@ -1080,52 +1080,52 @@
         <v>105</v>
       </c>
       <c r="AW2" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2">
-        <v>48.5</v>
+        <v>45.2</v>
       </c>
       <c r="AZ2" s="2">
-        <v>20</v>
+        <v>14.6</v>
       </c>
       <c r="BA2" s="2">
-        <v>39.5</v>
+        <v>28.5</v>
       </c>
       <c r="BB2" s="2">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
       <c r="BF2" s="2">
-        <v>20</v>
+        <v>14.6</v>
       </c>
       <c r="BG2" s="2">
-        <v>39.5</v>
+        <v>28.5</v>
       </c>
       <c r="BH2" s="2">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="BI2" s="2">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="BJ2" s="2">
-        <v>10.4</v>
+        <v>5.6</v>
       </c>
       <c r="BK2" s="2">
-        <v>17</v>
+        <v>12.1</v>
       </c>
       <c r="BL2" s="2">
-        <v>0.613</v>
+        <v>0.464</v>
       </c>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2">
-        <v>25.7</v>
+        <v>22.9</v>
       </c>
       <c r="BP2" s="2">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="BQ2" s="2" t="s">
         <v>91</v>
@@ -1135,10 +1135,10 @@
       </c>
       <c r="BS2" s="2"/>
       <c r="BT2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="BU2" s="3">
-        <v>50.4</v>
+        <v>2</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>34.7</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>92</v>
@@ -1150,15 +1150,15 @@
         <v>103</v>
       </c>
       <c r="BY2" s="2">
-        <v>1962</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="3" spans="1:77">
       <c r="A3" s="2">
-        <v>2600</v>
+        <v>2735</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2">
         <v>415</v>
@@ -1173,10 +1173,10 @@
         <v>88</v>
       </c>
       <c r="G3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>89</v>
@@ -1189,48 +1189,48 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="N3" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" s="2">
-        <v>13.8</v>
+        <v>12.6</v>
       </c>
       <c r="P3" s="2">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U3" s="2">
-        <v>13.8</v>
+        <v>12.6</v>
       </c>
       <c r="V3" s="2">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="W3" s="2">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="X3" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y3" s="2">
         <v>5.5</v>
       </c>
       <c r="Z3" s="2">
-        <v>0.55</v>
+        <v>0.573</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="3">
-        <v>24.7</v>
+      <c r="AC3" s="2">
+        <v>24.1</v>
       </c>
       <c r="AD3" s="2">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>91</v>
@@ -1240,13 +1240,13 @@
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AI3" s="2">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>102</v>
@@ -1255,13 +1255,13 @@
         <v>103</v>
       </c>
       <c r="AM3" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="AN3" s="2">
-        <v>2718</v>
+        <v>2849</v>
       </c>
       <c r="AO3" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>104</v>
@@ -1273,10 +1273,10 @@
         <v>88</v>
       </c>
       <c r="AS3" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU3" s="2" t="s">
         <v>89</v>
@@ -1285,52 +1285,52 @@
         <v>106</v>
       </c>
       <c r="AW3" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="AZ3" s="2">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="BA3" s="2">
-        <v>28.7</v>
+        <v>33.6</v>
       </c>
       <c r="BB3" s="2">
-        <v>0.524</v>
+        <v>0.499</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="BG3" s="2">
-        <v>28.7</v>
+        <v>33.6</v>
       </c>
       <c r="BH3" s="2">
-        <v>0.524</v>
+        <v>0.499</v>
       </c>
       <c r="BI3" s="2">
-        <v>0.524</v>
+        <v>0.499</v>
       </c>
       <c r="BJ3" s="2">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="BK3" s="2">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="BL3" s="2">
-        <v>0.531</v>
+        <v>0.416</v>
       </c>
       <c r="BM3" s="2"/>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2">
-        <v>22.3</v>
+        <v>23.5</v>
       </c>
       <c r="BP3" s="2">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="BQ3" s="2" t="s">
         <v>91</v>
@@ -1340,13 +1340,13 @@
       </c>
       <c r="BS3" s="2"/>
       <c r="BT3" s="2">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BU3" s="2">
-        <v>36.9</v>
+        <v>38.9</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW3" s="2" t="s">
         <v>102</v>
@@ -1355,15 +1355,15 @@
         <v>103</v>
       </c>
       <c r="BY3" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="4" spans="1:77">
       <c r="A4" s="2">
-        <v>2467</v>
+        <v>2735</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2">
         <v>415</v>
@@ -1378,10 +1378,10 @@
         <v>88</v>
       </c>
       <c r="G4" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>89</v>
@@ -1394,48 +1394,48 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2">
-        <v>44.9</v>
+        <v>44.4</v>
       </c>
       <c r="N4" s="2">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" s="2">
-        <v>15.2</v>
+        <v>12.6</v>
       </c>
       <c r="P4" s="2">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="U4" s="2">
-        <v>15.2</v>
+        <v>12.6</v>
       </c>
       <c r="V4" s="2">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="W4" s="2">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="X4" s="2">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="Y4" s="2">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" s="2">
-        <v>0.555</v>
+        <v>0.573</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="AD4" s="2">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>91</v>
@@ -1445,13 +1445,13 @@
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AI4" s="2">
-        <v>16.8</v>
+        <v>14.1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>102</v>
@@ -1460,13 +1460,13 @@
         <v>103</v>
       </c>
       <c r="AM4" s="2">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="AN4" s="2">
-        <v>2580</v>
+        <v>2850</v>
       </c>
       <c r="AO4" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP4" s="2" t="s">
         <v>104</v>
@@ -1478,29 +1478,29 @@
         <v>88</v>
       </c>
       <c r="AS4" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AT4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU4" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AW4" s="2">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2">
-        <v>47.6</v>
+        <v>44.5</v>
       </c>
       <c r="AZ4" s="2">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="BA4" s="2">
-        <v>34.6</v>
+        <v>23.1</v>
       </c>
       <c r="BB4" s="2">
         <v>0.528</v>
@@ -1509,10 +1509,10 @@
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="BG4" s="2">
-        <v>34.6</v>
+        <v>23.1</v>
       </c>
       <c r="BH4" s="2">
         <v>0.528</v>
@@ -1521,21 +1521,21 @@
         <v>0.528</v>
       </c>
       <c r="BJ4" s="2">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="BK4" s="2">
-        <v>13.9</v>
+        <v>10.9</v>
       </c>
       <c r="BL4" s="2">
-        <v>0.593</v>
+        <v>0.526</v>
       </c>
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2">
-        <v>24.3</v>
+        <v>22.3</v>
       </c>
       <c r="BP4" s="2">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BQ4" s="2" t="s">
         <v>91</v>
@@ -1545,13 +1545,13 @@
       </c>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BU4" s="2">
-        <v>44.8</v>
+        <v>30.1</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BW4" s="2" t="s">
         <v>102</v>
@@ -1560,15 +1560,15 @@
         <v>103</v>
       </c>
       <c r="BY4" s="2">
-        <v>1963</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="5" spans="1:77">
       <c r="A5" s="2">
-        <v>2735</v>
+        <v>2219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2">
         <v>415</v>
@@ -1583,10 +1583,10 @@
         <v>88</v>
       </c>
       <c r="G5" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>89</v>
@@ -1599,48 +1599,48 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="N5" s="2">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="O5" s="2">
-        <v>12.6</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="U5" s="2">
-        <v>12.6</v>
+        <v>16</v>
       </c>
       <c r="V5" s="2">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="W5" s="2">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="X5" s="2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Y5" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z5" s="2">
-        <v>0.573</v>
+        <v>0.55</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="AD5" s="2">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>91</v>
@@ -1650,13 +1650,13 @@
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="2">
-        <v>14.1</v>
+        <v>16.9</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>102</v>
@@ -1665,13 +1665,13 @@
         <v>103</v>
       </c>
       <c r="AM5" s="2">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="AN5" s="2">
-        <v>2850</v>
+        <v>2313</v>
       </c>
       <c r="AO5" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP5" s="2" t="s">
         <v>104</v>
@@ -1683,64 +1683,64 @@
         <v>88</v>
       </c>
       <c r="AS5" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AT5" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AW5" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2">
-        <v>44.5</v>
+        <v>47.8</v>
       </c>
       <c r="AZ5" s="2">
-        <v>12.2</v>
+        <v>15.8</v>
       </c>
       <c r="BA5" s="2">
-        <v>23.1</v>
+        <v>31.1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2">
-        <v>12.2</v>
+        <v>15.8</v>
       </c>
       <c r="BG5" s="2">
-        <v>23.1</v>
+        <v>31.1</v>
       </c>
       <c r="BH5" s="2">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="BI5" s="2">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="BJ5" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="BK5" s="2">
-        <v>10.9</v>
+        <v>13.3</v>
       </c>
       <c r="BL5" s="2">
-        <v>0.526</v>
+        <v>0.504</v>
       </c>
       <c r="BM5" s="2"/>
       <c r="BN5" s="2"/>
-      <c r="BO5" s="2">
-        <v>22.3</v>
+      <c r="BO5" s="3">
+        <v>27.2</v>
       </c>
       <c r="BP5" s="2">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>91</v>
@@ -1750,13 +1750,13 @@
       </c>
       <c r="BS5" s="2"/>
       <c r="BT5" s="2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BU5" s="2">
-        <v>30.1</v>
+        <v>38.4</v>
       </c>
       <c r="BV5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BW5" s="2" t="s">
         <v>102</v>
@@ -1765,15 +1765,15 @@
         <v>103</v>
       </c>
       <c r="BY5" s="2">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="6" spans="1:77">
       <c r="A6" s="2">
-        <v>2735</v>
+        <v>2097</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>415</v>
@@ -1788,10 +1788,10 @@
         <v>88</v>
       </c>
       <c r="G6" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>89</v>
@@ -1800,52 +1800,52 @@
         <v>90</v>
       </c>
       <c r="K6" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>44.4</v>
+        <v>42.5</v>
       </c>
       <c r="N6" s="2">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O6" s="2">
-        <v>12.6</v>
+        <v>16.1</v>
       </c>
       <c r="P6" s="2">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="U6" s="2">
-        <v>12.6</v>
+        <v>16.1</v>
       </c>
       <c r="V6" s="2">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="W6" s="2">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="X6" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y6" s="2">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" s="2">
-        <v>0.573</v>
+        <v>0.612</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AD6" s="2">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>91</v>
@@ -1855,13 +1855,13 @@
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AI6" s="2">
-        <v>14.1</v>
+        <v>18.2</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK6" s="2" t="s">
         <v>102</v>
@@ -1870,13 +1870,13 @@
         <v>103</v>
       </c>
       <c r="AM6" s="2">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="AN6" s="2">
-        <v>2849</v>
+        <v>2209</v>
       </c>
       <c r="AO6" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>104</v>
@@ -1888,64 +1888,64 @@
         <v>88</v>
       </c>
       <c r="AS6" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AT6" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AW6" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2">
-        <v>45.9</v>
+        <v>46.4</v>
       </c>
       <c r="AZ6" s="2">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
       <c r="BA6" s="2">
-        <v>33.6</v>
+        <v>32.1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0.499</v>
+        <v>0.461</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
       <c r="BG6" s="2">
-        <v>33.6</v>
+        <v>32.1</v>
       </c>
       <c r="BH6" s="2">
-        <v>0.499</v>
+        <v>0.461</v>
       </c>
       <c r="BI6" s="2">
-        <v>0.499</v>
+        <v>0.461</v>
       </c>
       <c r="BJ6" s="2">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="BK6" s="2">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="BL6" s="2">
-        <v>0.416</v>
+        <v>0.582</v>
       </c>
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
       <c r="BO6" s="2">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="BP6" s="2">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="BQ6" s="2" t="s">
         <v>91</v>
@@ -1955,13 +1955,13 @@
       </c>
       <c r="BS6" s="2"/>
       <c r="BT6" s="2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BU6" s="2">
-        <v>38.9</v>
+        <v>37.6</v>
       </c>
       <c r="BV6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BW6" s="2" t="s">
         <v>102</v>
@@ -1970,12 +1970,12 @@
         <v>103</v>
       </c>
       <c r="BY6" s="2">
-        <v>1965</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="7" spans="1:77">
       <c r="A7" s="2">
-        <v>2735</v>
+        <v>2995</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>80</v>
@@ -1993,10 +1993,10 @@
         <v>88</v>
       </c>
       <c r="G7" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>89</v>
@@ -2005,52 +2005,52 @@
         <v>90</v>
       </c>
       <c r="K7" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2">
-        <v>44.4</v>
+        <v>40.7</v>
       </c>
       <c r="N7" s="2">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O7" s="2">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="P7" s="2">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="U7" s="2">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="V7" s="2">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="W7" s="2">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="X7" s="2">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Y7" s="2">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z7" s="2">
-        <v>0.573</v>
+        <v>0.61</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>5.3</v>
+        <v>21</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>5.8</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>91</v>
@@ -2060,10 +2060,10 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AI7" s="2">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>95</v>
@@ -2075,13 +2075,13 @@
         <v>103</v>
       </c>
       <c r="AM7" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="AN7" s="2">
-        <v>2848</v>
+        <v>3118</v>
       </c>
       <c r="AO7" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP7" s="2" t="s">
         <v>104</v>
@@ -2093,64 +2093,64 @@
         <v>88</v>
       </c>
       <c r="AS7" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AT7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU7" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW7" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2">
-        <v>45.2</v>
+        <v>45.5</v>
       </c>
       <c r="AZ7" s="2">
-        <v>14.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BA7" s="2">
-        <v>28.5</v>
+        <v>14.2</v>
       </c>
       <c r="BB7" s="2">
-        <v>0.51</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
       <c r="BF7" s="2">
-        <v>14.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BG7" s="2">
-        <v>28.5</v>
+        <v>14.2</v>
       </c>
       <c r="BH7" s="2">
-        <v>0.51</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="BI7" s="2">
-        <v>0.51</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="BJ7" s="2">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="BK7" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="BL7" s="2">
-        <v>0.464</v>
+        <v>0.441</v>
       </c>
       <c r="BM7" s="2"/>
       <c r="BN7" s="2"/>
       <c r="BO7" s="2">
-        <v>22.9</v>
+        <v>24.2</v>
       </c>
       <c r="BP7" s="2">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="BQ7" s="2" t="s">
         <v>91</v>
@@ -2160,10 +2160,10 @@
       </c>
       <c r="BS7" s="2"/>
       <c r="BT7" s="2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BU7" s="2">
-        <v>34.7</v>
+        <v>24.1</v>
       </c>
       <c r="BV7" s="2" t="s">
         <v>95</v>
@@ -2175,12 +2175,12 @@
         <v>103</v>
       </c>
       <c r="BY7" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="8" spans="1:77">
       <c r="A8" s="2">
-        <v>2995</v>
+        <v>2865</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>81</v>
@@ -2198,10 +2198,10 @@
         <v>88</v>
       </c>
       <c r="G8" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>89</v>
@@ -2210,52 +2210,52 @@
         <v>90</v>
       </c>
       <c r="K8" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2">
-        <v>40.7</v>
+        <v>43.4</v>
       </c>
       <c r="N8" s="2">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="P8" s="2">
-        <v>0.454</v>
+        <v>0.415</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U8" s="2">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="V8" s="2">
-        <v>0.454</v>
+        <v>0.415</v>
       </c>
       <c r="W8" s="2">
-        <v>0.454</v>
+        <v>0.415</v>
       </c>
       <c r="X8" s="2">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Y8" s="2">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z8" s="2">
-        <v>0.61</v>
+        <v>0.551</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>5.8</v>
+        <v>22.8</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>4.8</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>91</v>
@@ -2265,10 +2265,10 @@
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AI8" s="2">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>96</v>
@@ -2280,13 +2280,13 @@
         <v>103</v>
       </c>
       <c r="AM8" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="AN8" s="2">
-        <v>3118</v>
+        <v>2984</v>
       </c>
       <c r="AO8" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP8" s="2" t="s">
         <v>104</v>
@@ -2298,10 +2298,10 @@
         <v>88</v>
       </c>
       <c r="AS8" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU8" s="2" t="s">
         <v>89</v>
@@ -2310,52 +2310,52 @@
         <v>107</v>
       </c>
       <c r="AW8" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2">
-        <v>45.5</v>
+        <v>47.3</v>
       </c>
       <c r="AZ8" s="2">
-        <v>9.699999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="BA8" s="2">
-        <v>14.2</v>
+        <v>25.2</v>
       </c>
       <c r="BB8" s="2">
-        <v>0.6830000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
-        <v>9.699999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="BG8" s="2">
-        <v>14.2</v>
+        <v>25.2</v>
       </c>
       <c r="BH8" s="2">
-        <v>0.6830000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BI8" s="2">
-        <v>0.6830000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BJ8" s="2">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="BK8" s="2">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="BL8" s="2">
-        <v>0.441</v>
+        <v>0.513</v>
       </c>
       <c r="BM8" s="2"/>
       <c r="BN8" s="2"/>
       <c r="BO8" s="2">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="BP8" s="2">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="BQ8" s="2" t="s">
         <v>91</v>
@@ -2365,10 +2365,10 @@
       </c>
       <c r="BS8" s="2"/>
       <c r="BT8" s="2">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="BU8" s="2">
-        <v>24.1</v>
+        <v>33.5</v>
       </c>
       <c r="BV8" s="2" t="s">
         <v>96</v>
@@ -2380,12 +2380,12 @@
         <v>103</v>
       </c>
       <c r="BY8" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="9" spans="1:77">
       <c r="A9" s="2">
-        <v>2219</v>
+        <v>2332</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>82</v>
@@ -2403,10 +2403,10 @@
         <v>88</v>
       </c>
       <c r="G9" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>89</v>
@@ -2415,52 +2415,52 @@
         <v>90</v>
       </c>
       <c r="K9" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2">
-        <v>44.3</v>
+        <v>45.2</v>
       </c>
       <c r="N9" s="2">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="O9" s="2">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="P9" s="2">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="U9" s="2">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="V9" s="2">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="W9" s="2">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="X9" s="2">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Y9" s="2">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Z9" s="2">
-        <v>0.55</v>
+        <v>0.595</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AD9" s="2">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>91</v>
@@ -2470,10 +2470,10 @@
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>16.9</v>
+        <v>2.7</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>18.9</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>97</v>
@@ -2485,13 +2485,13 @@
         <v>103</v>
       </c>
       <c r="AM9" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="AN9" s="2">
-        <v>2313</v>
+        <v>2445</v>
       </c>
       <c r="AO9" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP9" s="2" t="s">
         <v>104</v>
@@ -2503,64 +2503,64 @@
         <v>88</v>
       </c>
       <c r="AS9" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AW9" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="AZ9" s="2">
-        <v>15.8</v>
+        <v>20</v>
       </c>
       <c r="BA9" s="2">
-        <v>31.1</v>
+        <v>39.5</v>
       </c>
       <c r="BB9" s="2">
-        <v>0.509</v>
+        <v>0.506</v>
       </c>
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2">
-        <v>15.8</v>
+        <v>20</v>
       </c>
       <c r="BG9" s="2">
-        <v>31.1</v>
+        <v>39.5</v>
       </c>
       <c r="BH9" s="2">
-        <v>0.509</v>
+        <v>0.506</v>
       </c>
       <c r="BI9" s="2">
-        <v>0.509</v>
+        <v>0.506</v>
       </c>
       <c r="BJ9" s="2">
-        <v>6.7</v>
+        <v>10.4</v>
       </c>
       <c r="BK9" s="2">
-        <v>13.3</v>
+        <v>17</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.504</v>
+        <v>0.613</v>
       </c>
       <c r="BM9" s="2"/>
       <c r="BN9" s="2"/>
-      <c r="BO9" s="3">
-        <v>27.2</v>
+      <c r="BO9" s="2">
+        <v>25.7</v>
       </c>
       <c r="BP9" s="2">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="BQ9" s="2" t="s">
         <v>91</v>
@@ -2570,10 +2570,10 @@
       </c>
       <c r="BS9" s="2"/>
       <c r="BT9" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>38.4</v>
+        <v>1.5</v>
+      </c>
+      <c r="BU9" s="3">
+        <v>50.4</v>
       </c>
       <c r="BV9" s="2" t="s">
         <v>97</v>
@@ -2585,12 +2585,12 @@
         <v>103</v>
       </c>
       <c r="BY9" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="10" spans="1:77">
       <c r="A10" s="2">
-        <v>2865</v>
+        <v>3513</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
@@ -2608,10 +2608,10 @@
         <v>88</v>
       </c>
       <c r="G10" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>89</v>
@@ -2620,52 +2620,52 @@
         <v>90</v>
       </c>
       <c r="K10" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2">
-        <v>43.4</v>
+        <v>42.7</v>
       </c>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O10" s="2">
-        <v>12.1</v>
+        <v>8.4</v>
       </c>
       <c r="P10" s="2">
-        <v>0.415</v>
+        <v>0.433</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="U10" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="X10" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="Y10" s="2">
         <v>5</v>
       </c>
-      <c r="U10" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0.415</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.415</v>
-      </c>
-      <c r="X10" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>5.2</v>
-      </c>
       <c r="Z10" s="2">
-        <v>0.551</v>
+        <v>0.526</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2">
-        <v>22.8</v>
+        <v>19.3</v>
       </c>
       <c r="AD10" s="2">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>91</v>
@@ -2675,28 +2675,28 @@
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AI10" s="2">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>98</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AM10" s="2">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="AN10" s="2">
-        <v>2984</v>
+        <v>3901</v>
       </c>
       <c r="AO10" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP10" s="2" t="s">
         <v>104</v>
@@ -2708,64 +2708,64 @@
         <v>88</v>
       </c>
       <c r="AS10" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AT10" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU10" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AW10" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2">
-        <v>47.3</v>
+        <v>45.3</v>
       </c>
       <c r="AZ10" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="BA10" s="2">
         <v>13.6</v>
       </c>
-      <c r="BA10" s="2">
-        <v>25.2</v>
-      </c>
       <c r="BB10" s="2">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="BG10" s="2">
         <v>13.6</v>
       </c>
-      <c r="BG10" s="2">
-        <v>25.2</v>
-      </c>
       <c r="BH10" s="2">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="BI10" s="2">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="BJ10" s="2">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="BK10" s="2">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="BL10" s="2">
-        <v>0.513</v>
+        <v>0.446</v>
       </c>
       <c r="BM10" s="2"/>
       <c r="BN10" s="2"/>
       <c r="BO10" s="2">
-        <v>24.6</v>
+        <v>21.1</v>
       </c>
       <c r="BP10" s="2">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="BQ10" s="2" t="s">
         <v>91</v>
@@ -2775,10 +2775,10 @@
       </c>
       <c r="BS10" s="2"/>
       <c r="BT10" s="2">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="BU10" s="2">
-        <v>33.5</v>
+        <v>20.5</v>
       </c>
       <c r="BV10" s="2" t="s">
         <v>98</v>
@@ -2790,12 +2790,12 @@
         <v>103</v>
       </c>
       <c r="BY10" s="2">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="11" spans="1:77">
       <c r="A11" s="2">
-        <v>3150</v>
+        <v>2600</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>84</v>
@@ -2813,10 +2813,10 @@
         <v>88</v>
       </c>
       <c r="G11" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>89</v>
@@ -2829,48 +2829,48 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
-        <v>37.9</v>
+        <v>44.6</v>
       </c>
       <c r="N11" s="2">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="O11" s="2">
-        <v>11</v>
+        <v>13.8</v>
       </c>
       <c r="P11" s="2">
-        <v>0.425</v>
+        <v>0.433</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="U11" s="2">
-        <v>11</v>
+        <v>13.8</v>
       </c>
       <c r="V11" s="2">
-        <v>0.425</v>
+        <v>0.433</v>
       </c>
       <c r="W11" s="2">
-        <v>0.425</v>
+        <v>0.433</v>
       </c>
       <c r="X11" s="2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="2">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" s="2">
-        <v>0.537</v>
+        <v>0.55</v>
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="2">
-        <v>18.6</v>
+      <c r="AC11" s="3">
+        <v>24.7</v>
       </c>
       <c r="AD11" s="2">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AE11" s="2" t="s">
         <v>91</v>
@@ -2880,10 +2880,10 @@
       </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AI11" s="2">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>99</v>
@@ -2895,13 +2895,13 @@
         <v>103</v>
       </c>
       <c r="AM11" s="2">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="AN11" s="2">
-        <v>3485</v>
+        <v>2718</v>
       </c>
       <c r="AO11" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP11" s="2" t="s">
         <v>104</v>
@@ -2913,64 +2913,64 @@
         <v>88</v>
       </c>
       <c r="AS11" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AT11" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AU11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW11" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>10</v>
+        <v>15.1</v>
       </c>
       <c r="BA11" s="2">
-        <v>16.8</v>
+        <v>28.7</v>
       </c>
       <c r="BB11" s="2">
-        <v>0.595</v>
+        <v>0.524</v>
       </c>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
       <c r="BF11" s="2">
-        <v>10</v>
+        <v>15.1</v>
       </c>
       <c r="BG11" s="2">
-        <v>16.8</v>
+        <v>28.7</v>
       </c>
       <c r="BH11" s="2">
-        <v>0.595</v>
+        <v>0.524</v>
       </c>
       <c r="BI11" s="2">
-        <v>0.595</v>
+        <v>0.524</v>
       </c>
       <c r="BJ11" s="2">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="BK11" s="2">
-        <v>11.4</v>
+        <v>12.7</v>
       </c>
       <c r="BL11" s="2">
-        <v>0.38</v>
+        <v>0.531</v>
       </c>
       <c r="BM11" s="2"/>
       <c r="BN11" s="2"/>
       <c r="BO11" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="BP11" s="3">
-        <v>8.6</v>
+        <v>22.3</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>5</v>
       </c>
       <c r="BQ11" s="2" t="s">
         <v>91</v>
@@ -2980,10 +2980,10 @@
       </c>
       <c r="BS11" s="2"/>
       <c r="BT11" s="2">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BU11" s="2">
-        <v>24.3</v>
+        <v>36.9</v>
       </c>
       <c r="BV11" s="2" t="s">
         <v>99</v>
@@ -2995,12 +2995,12 @@
         <v>103</v>
       </c>
       <c r="BY11" s="2">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="12" spans="1:77">
       <c r="A12" s="2">
-        <v>2097</v>
+        <v>2467</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
@@ -3018,10 +3018,10 @@
         <v>88</v>
       </c>
       <c r="G12" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H12" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>89</v>
@@ -3030,52 +3030,52 @@
         <v>90</v>
       </c>
       <c r="K12" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2">
-        <v>42.5</v>
+        <v>44.9</v>
       </c>
       <c r="N12" s="2">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="O12" s="2">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="P12" s="2">
-        <v>0.467</v>
+        <v>0.432</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="U12" s="2">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="V12" s="2">
-        <v>0.467</v>
+        <v>0.432</v>
       </c>
       <c r="W12" s="2">
-        <v>0.467</v>
+        <v>0.432</v>
       </c>
       <c r="X12" s="2">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Y12" s="2">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.612</v>
+        <v>0.555</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="AD12" s="2">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>91</v>
@@ -3085,10 +3085,10 @@
       </c>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI12" s="2">
-        <v>18.2</v>
+        <v>16.8</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>100</v>
@@ -3100,13 +3100,13 @@
         <v>103</v>
       </c>
       <c r="AM12" s="2">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="AN12" s="2">
-        <v>2209</v>
+        <v>2580</v>
       </c>
       <c r="AO12" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP12" s="2" t="s">
         <v>104</v>
@@ -3118,64 +3118,64 @@
         <v>88</v>
       </c>
       <c r="AS12" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU12" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AW12" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="AZ12" s="2">
-        <v>14.8</v>
+        <v>18.3</v>
       </c>
       <c r="BA12" s="2">
-        <v>32.1</v>
+        <v>34.6</v>
       </c>
       <c r="BB12" s="2">
-        <v>0.461</v>
+        <v>0.528</v>
       </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2">
-        <v>14.8</v>
+        <v>18.3</v>
       </c>
       <c r="BG12" s="2">
-        <v>32.1</v>
+        <v>34.6</v>
       </c>
       <c r="BH12" s="2">
-        <v>0.461</v>
+        <v>0.528</v>
       </c>
       <c r="BI12" s="2">
-        <v>0.461</v>
+        <v>0.528</v>
       </c>
       <c r="BJ12" s="2">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BK12" s="2">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="BL12" s="2">
-        <v>0.582</v>
+        <v>0.593</v>
       </c>
       <c r="BM12" s="2"/>
       <c r="BN12" s="2"/>
       <c r="BO12" s="2">
-        <v>27</v>
+        <v>24.3</v>
       </c>
       <c r="BP12" s="2">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="BQ12" s="2" t="s">
         <v>91</v>
@@ -3185,10 +3185,10 @@
       </c>
       <c r="BS12" s="2"/>
       <c r="BT12" s="2">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="BU12" s="2">
-        <v>37.6</v>
+        <v>44.8</v>
       </c>
       <c r="BV12" s="2" t="s">
         <v>100</v>
@@ -3200,12 +3200,12 @@
         <v>103</v>
       </c>
       <c r="BY12" s="2">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="13" spans="1:77">
       <c r="A13" s="2">
-        <v>3513</v>
+        <v>3150</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>86</v>
@@ -3223,10 +3223,10 @@
         <v>88</v>
       </c>
       <c r="G13" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>89</v>
@@ -3235,52 +3235,52 @@
         <v>90</v>
       </c>
       <c r="K13" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2">
-        <v>42.7</v>
+        <v>37.9</v>
       </c>
       <c r="N13" s="2">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="O13" s="2">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="P13" s="2">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="U13" s="2">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="V13" s="2">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="W13" s="2">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="X13" s="2">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y13" s="2">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.526</v>
+        <v>0.537</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2">
-        <v>19.3</v>
+        <v>18.6</v>
       </c>
       <c r="AD13" s="2">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>91</v>
@@ -3290,28 +3290,28 @@
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AI13" s="2">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL13" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AM13" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="AN13" s="2">
-        <v>3901</v>
+        <v>3485</v>
       </c>
       <c r="AO13" s="2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="AP13" s="2" t="s">
         <v>104</v>
@@ -3323,64 +3323,64 @@
         <v>88</v>
       </c>
       <c r="AS13" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AW13" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2">
-        <v>45.3</v>
+        <v>46.8</v>
       </c>
       <c r="AZ13" s="2">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="BA13" s="2">
-        <v>13.6</v>
+        <v>16.8</v>
       </c>
       <c r="BB13" s="2">
-        <v>0.583</v>
+        <v>0.595</v>
       </c>
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="BG13" s="2">
-        <v>13.6</v>
+        <v>16.8</v>
       </c>
       <c r="BH13" s="2">
-        <v>0.583</v>
+        <v>0.595</v>
       </c>
       <c r="BI13" s="2">
-        <v>0.583</v>
+        <v>0.595</v>
       </c>
       <c r="BJ13" s="2">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="BK13" s="2">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="BL13" s="2">
-        <v>0.446</v>
+        <v>0.38</v>
       </c>
       <c r="BM13" s="2"/>
       <c r="BN13" s="2"/>
       <c r="BO13" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="BP13" s="2">
-        <v>4.5</v>
+        <v>23.8</v>
+      </c>
+      <c r="BP13" s="3">
+        <v>8.6</v>
       </c>
       <c r="BQ13" s="2" t="s">
         <v>91</v>
@@ -3390,10 +3390,10 @@
       </c>
       <c r="BS13" s="2"/>
       <c r="BT13" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BU13" s="2">
-        <v>20.5</v>
+        <v>24.3</v>
       </c>
       <c r="BV13" s="2" t="s">
         <v>101</v>
@@ -3405,7 +3405,7 @@
         <v>103</v>
       </c>
       <c r="BY13" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
   </sheetData>

--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="109">
   <si>
     <t>seas_id_x</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>BOS</t>
-  </si>
-  <si>
-    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>1964-65</t>
@@ -1027,12 +1024,8 @@
       <c r="AD2" s="2">
         <v>5.3</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2">
         <v>2.6</v>
@@ -1041,13 +1034,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM2" s="2">
         <v>1965</v>
@@ -1059,7 +1052,7 @@
         <v>5231</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ2" s="2">
         <v>1936</v>
@@ -1077,7 +1070,7 @@
         <v>89</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW2" s="2">
         <v>73</v>
@@ -1127,12 +1120,8 @@
       <c r="BP2" s="2">
         <v>3.4</v>
       </c>
-      <c r="BQ2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
       <c r="BS2" s="2"/>
       <c r="BT2" s="2">
         <v>2</v>
@@ -1141,13 +1130,13 @@
         <v>34.7</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BW2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX2" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY2" s="2">
         <v>1965</v>
@@ -1232,12 +1221,8 @@
       <c r="AD3" s="2">
         <v>5.3</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2">
         <v>2.6</v>
@@ -1246,13 +1231,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM3" s="2">
         <v>1965</v>
@@ -1264,7 +1249,7 @@
         <v>5231</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ3" s="2">
         <v>1936</v>
@@ -1282,7 +1267,7 @@
         <v>89</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW3" s="2">
         <v>38</v>
@@ -1332,12 +1317,8 @@
       <c r="BP3" s="2">
         <v>3.1</v>
       </c>
-      <c r="BQ3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
       <c r="BS3" s="2"/>
       <c r="BT3" s="2">
         <v>2</v>
@@ -1346,13 +1327,13 @@
         <v>38.9</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BW3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX3" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY3" s="2">
         <v>1965</v>
@@ -1437,12 +1418,8 @@
       <c r="AD4" s="2">
         <v>5.3</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
         <v>2.6</v>
@@ -1451,13 +1428,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM4" s="2">
         <v>1965</v>
@@ -1469,7 +1446,7 @@
         <v>5231</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ4" s="2">
         <v>1936</v>
@@ -1487,7 +1464,7 @@
         <v>89</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW4" s="2">
         <v>35</v>
@@ -1537,12 +1514,8 @@
       <c r="BP4" s="2">
         <v>3.8</v>
       </c>
-      <c r="BQ4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2">
         <v>2</v>
@@ -1551,13 +1524,13 @@
         <v>30.1</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BW4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY4" s="2">
         <v>1965</v>
@@ -1642,12 +1615,8 @@
       <c r="AD5" s="2">
         <v>3.4</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2">
         <v>2</v>
@@ -1656,13 +1625,13 @@
         <v>16.9</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL5" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM5" s="2">
         <v>1961</v>
@@ -1674,7 +1643,7 @@
         <v>5231</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ5" s="2">
         <v>1936</v>
@@ -1692,7 +1661,7 @@
         <v>89</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW5" s="2">
         <v>79</v>
@@ -1742,12 +1711,8 @@
       <c r="BP5" s="2">
         <v>1.9</v>
       </c>
-      <c r="BQ5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR5" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
       <c r="BS5" s="2"/>
       <c r="BT5" s="2">
         <v>1.6</v>
@@ -1756,13 +1721,13 @@
         <v>38.4</v>
       </c>
       <c r="BV5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX5" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY5" s="2">
         <v>1961</v>
@@ -1847,12 +1812,8 @@
       <c r="AD6" s="2">
         <v>3.7</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2">
         <v>2.8</v>
@@ -1861,13 +1822,13 @@
         <v>18.2</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL6" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM6" s="2">
         <v>1960</v>
@@ -1879,7 +1840,7 @@
         <v>5231</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ6" s="2">
         <v>1936</v>
@@ -1897,7 +1858,7 @@
         <v>89</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW6" s="2">
         <v>72</v>
@@ -1947,12 +1908,8 @@
       <c r="BP6" s="2">
         <v>2.3</v>
       </c>
-      <c r="BQ6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
       <c r="BS6" s="2"/>
       <c r="BT6" s="2">
         <v>2.1</v>
@@ -1961,13 +1918,13 @@
         <v>37.6</v>
       </c>
       <c r="BV6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BW6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX6" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY6" s="2">
         <v>1960</v>
@@ -2052,12 +2009,8 @@
       <c r="AD7" s="3">
         <v>5.8</v>
       </c>
-      <c r="AE7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2">
         <v>3.2</v>
@@ -2066,13 +2019,13 @@
         <v>13.3</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL7" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM7" s="2">
         <v>1967</v>
@@ -2084,7 +2037,7 @@
         <v>5231</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ7" s="2">
         <v>1936</v>
@@ -2102,7 +2055,7 @@
         <v>89</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW7" s="2">
         <v>81</v>
@@ -2152,12 +2105,8 @@
       <c r="BP7" s="2">
         <v>7.8</v>
       </c>
-      <c r="BQ7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
       <c r="BS7" s="2"/>
       <c r="BT7" s="2">
         <v>1.8</v>
@@ -2166,13 +2115,13 @@
         <v>24.1</v>
       </c>
       <c r="BV7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BW7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX7" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY7" s="2">
         <v>1967</v>
@@ -2257,12 +2206,8 @@
       <c r="AD8" s="2">
         <v>4.8</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
         <v>2.8</v>
@@ -2271,13 +2216,13 @@
         <v>12.9</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM8" s="2">
         <v>1966</v>
@@ -2289,7 +2234,7 @@
         <v>5231</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ8" s="2">
         <v>1936</v>
@@ -2307,7 +2252,7 @@
         <v>89</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW8" s="2">
         <v>79</v>
@@ -2357,12 +2302,8 @@
       <c r="BP8" s="2">
         <v>5.2</v>
       </c>
-      <c r="BQ8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR8" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
       <c r="BS8" s="2"/>
       <c r="BT8" s="2">
         <v>2.2</v>
@@ -2371,13 +2312,13 @@
         <v>33.5</v>
       </c>
       <c r="BV8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BW8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX8" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX8" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY8" s="2">
         <v>1966</v>
@@ -2462,12 +2403,8 @@
       <c r="AD9" s="2">
         <v>4.5</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2">
         <v>2.7</v>
@@ -2476,13 +2413,13 @@
         <v>18.9</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL9" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM9" s="2">
         <v>1962</v>
@@ -2494,7 +2431,7 @@
         <v>5231</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ9" s="2">
         <v>1936</v>
@@ -2512,7 +2449,7 @@
         <v>89</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW9" s="2">
         <v>80</v>
@@ -2562,12 +2499,8 @@
       <c r="BP9" s="2">
         <v>2.4</v>
       </c>
-      <c r="BQ9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR9" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
       <c r="BS9" s="2"/>
       <c r="BT9" s="2">
         <v>1.5</v>
@@ -2576,13 +2509,13 @@
         <v>50.4</v>
       </c>
       <c r="BV9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BW9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX9" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX9" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY9" s="2">
         <v>1962</v>
@@ -2667,12 +2600,8 @@
       <c r="AD10" s="2">
         <v>4.9</v>
       </c>
-      <c r="AE10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2">
         <v>3</v>
@@ -2681,13 +2610,13 @@
         <v>9.9</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM10" s="2">
         <v>1969</v>
@@ -2699,7 +2628,7 @@
         <v>5231</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ10" s="2">
         <v>1936</v>
@@ -2717,7 +2646,7 @@
         <v>89</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AW10" s="2">
         <v>81</v>
@@ -2767,12 +2696,8 @@
       <c r="BP10" s="2">
         <v>4.5</v>
       </c>
-      <c r="BQ10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
       <c r="BS10" s="2"/>
       <c r="BT10" s="2">
         <v>1.8</v>
@@ -2781,13 +2706,13 @@
         <v>20.5</v>
       </c>
       <c r="BV10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BW10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX10" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX10" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY10" s="2">
         <v>1969</v>
@@ -2872,12 +2797,8 @@
       <c r="AD11" s="2">
         <v>4.7</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2">
         <v>2.4</v>
@@ -2886,13 +2807,13 @@
         <v>15</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL11" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM11" s="2">
         <v>1964</v>
@@ -2904,7 +2825,7 @@
         <v>5231</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ11" s="2">
         <v>1936</v>
@@ -2922,7 +2843,7 @@
         <v>89</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW11" s="2">
         <v>80</v>
@@ -2972,12 +2893,8 @@
       <c r="BP11" s="2">
         <v>5</v>
       </c>
-      <c r="BQ11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR11" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
       <c r="BS11" s="2"/>
       <c r="BT11" s="2">
         <v>2.3</v>
@@ -2986,13 +2903,13 @@
         <v>36.9</v>
       </c>
       <c r="BV11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BW11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX11" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX11" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY11" s="2">
         <v>1964</v>
@@ -3077,12 +2994,8 @@
       <c r="AD12" s="2">
         <v>4.5</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2">
         <v>2.4</v>
@@ -3091,13 +3004,13 @@
         <v>16.8</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL12" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM12" s="2">
         <v>1963</v>
@@ -3109,7 +3022,7 @@
         <v>5231</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ12" s="2">
         <v>1936</v>
@@ -3127,7 +3040,7 @@
         <v>89</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW12" s="2">
         <v>80</v>
@@ -3177,12 +3090,8 @@
       <c r="BP12" s="2">
         <v>3.4</v>
       </c>
-      <c r="BQ12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR12" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
       <c r="BS12" s="2"/>
       <c r="BT12" s="2">
         <v>1.7</v>
@@ -3191,13 +3100,13 @@
         <v>44.8</v>
       </c>
       <c r="BV12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BW12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX12" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX12" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY12" s="2">
         <v>1963</v>
@@ -3282,12 +3191,8 @@
       <c r="AD13" s="2">
         <v>4.6</v>
       </c>
-      <c r="AE13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2">
         <v>3.1</v>
@@ -3296,13 +3201,13 @@
         <v>12.5</v>
       </c>
       <c r="AJ13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AL13" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AM13" s="2">
         <v>1968</v>
@@ -3314,7 +3219,7 @@
         <v>5231</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ13" s="2">
         <v>1936</v>
@@ -3332,7 +3237,7 @@
         <v>89</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW13" s="2">
         <v>82</v>
@@ -3382,12 +3287,8 @@
       <c r="BP13" s="3">
         <v>8.6</v>
       </c>
-      <c r="BQ13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
       <c r="BS13" s="2"/>
       <c r="BT13" s="2">
         <v>2</v>
@@ -3396,13 +3297,13 @@
         <v>24.3</v>
       </c>
       <c r="BV13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW13" s="2" t="s">
+      <c r="BX13" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BX13" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BY13" s="2">
         <v>1968</v>

--- a/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
+++ b/bill_russell_and_wilt_chamberlain_per_game_avgs_merged.xlsx
@@ -247,33 +247,33 @@
     <t>calendar_year_y</t>
   </si>
   <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
     <t>1965</t>
   </si>
   <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
     <t>1961</t>
   </si>
   <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
     <t>1968</t>
   </si>
   <si>
@@ -289,33 +289,33 @@
     <t>BOS</t>
   </si>
   <si>
+    <t>1960-62</t>
+  </si>
+  <si>
+    <t>1966-67</t>
+  </si>
+  <si>
     <t>1964-65</t>
   </si>
   <si>
+    <t>1965-66</t>
+  </si>
+  <si>
+    <t>1968-69</t>
+  </si>
+  <si>
+    <t>1962-63</t>
+  </si>
+  <si>
+    <t>1963-64</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
     <t>1960-61</t>
   </si>
   <si>
-    <t>1959-60</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
-    <t>1960-62</t>
-  </si>
-  <si>
-    <t>1968-69</t>
-  </si>
-  <si>
-    <t>1963-64</t>
-  </si>
-  <si>
-    <t>1962-63</t>
-  </si>
-  <si>
     <t>1967-68</t>
   </si>
   <si>
@@ -328,16 +328,16 @@
     <t>Wilt Chamberlain</t>
   </si>
   <si>
+    <t>PHW</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>TOT</t>
   </si>
   <si>
     <t>SFW</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>PHW</t>
   </si>
   <si>
     <t>LAL</t>
@@ -947,13 +947,13 @@
     </row>
     <row r="2" spans="1:77">
       <c r="A2" s="2">
-        <v>2735</v>
+        <v>2332</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>87</v>
@@ -965,10 +965,10 @@
         <v>88</v>
       </c>
       <c r="G2" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>89</v>
@@ -977,61 +977,61 @@
         <v>90</v>
       </c>
       <c r="K2" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2">
-        <v>44.4</v>
+        <v>45.2</v>
       </c>
       <c r="N2" s="2">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="O2" s="2">
-        <v>12.6</v>
+        <v>16.6</v>
       </c>
       <c r="P2" s="2">
-        <v>0.438</v>
+        <v>0.457</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="U2" s="2">
-        <v>12.6</v>
+        <v>16.6</v>
       </c>
       <c r="V2" s="2">
-        <v>0.438</v>
+        <v>0.457</v>
       </c>
       <c r="W2" s="2">
-        <v>0.438</v>
+        <v>0.457</v>
       </c>
       <c r="X2" s="2">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Y2" s="2">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z2" s="2">
-        <v>0.573</v>
+        <v>0.595</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="AD2" s="2">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>14.1</v>
+        <v>2.7</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>18.9</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>91</v>
@@ -1043,13 +1043,13 @@
         <v>102</v>
       </c>
       <c r="AM2" s="2">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="AN2" s="2">
-        <v>2848</v>
+        <v>2445</v>
       </c>
       <c r="AO2" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>103</v>
@@ -1061,10 +1061,10 @@
         <v>88</v>
       </c>
       <c r="AS2" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AT2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>89</v>
@@ -1073,61 +1073,61 @@
         <v>104</v>
       </c>
       <c r="AW2" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2">
-        <v>45.2</v>
+        <v>48.5</v>
       </c>
       <c r="AZ2" s="2">
-        <v>14.6</v>
+        <v>20</v>
       </c>
       <c r="BA2" s="2">
-        <v>28.5</v>
+        <v>39.5</v>
       </c>
       <c r="BB2" s="2">
-        <v>0.51</v>
+        <v>0.506</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
       <c r="BF2" s="2">
-        <v>14.6</v>
+        <v>20</v>
       </c>
       <c r="BG2" s="2">
-        <v>28.5</v>
+        <v>39.5</v>
       </c>
       <c r="BH2" s="2">
-        <v>0.51</v>
+        <v>0.506</v>
       </c>
       <c r="BI2" s="2">
-        <v>0.51</v>
+        <v>0.506</v>
       </c>
       <c r="BJ2" s="2">
-        <v>5.6</v>
+        <v>10.4</v>
       </c>
       <c r="BK2" s="2">
-        <v>12.1</v>
+        <v>17</v>
       </c>
       <c r="BL2" s="2">
-        <v>0.464</v>
+        <v>0.613</v>
       </c>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2">
-        <v>22.9</v>
+        <v>25.7</v>
       </c>
       <c r="BP2" s="2">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="BQ2" s="2"/>
       <c r="BR2" s="2"/>
       <c r="BS2" s="2"/>
       <c r="BT2" s="2">
-        <v>2</v>
-      </c>
-      <c r="BU2" s="2">
-        <v>34.7</v>
+        <v>1.5</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>50.4</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>91</v>
@@ -1139,18 +1139,18 @@
         <v>102</v>
       </c>
       <c r="BY2" s="2">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="3" spans="1:77">
       <c r="A3" s="2">
-        <v>2735</v>
+        <v>2995</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>87</v>
@@ -1162,10 +1162,10 @@
         <v>88</v>
       </c>
       <c r="G3" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>89</v>
@@ -1174,64 +1174,64 @@
         <v>90</v>
       </c>
       <c r="K3" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2">
-        <v>44.4</v>
+        <v>40.7</v>
       </c>
       <c r="N3" s="2">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O3" s="2">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="P3" s="2">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="U3" s="2">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="V3" s="2">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="W3" s="2">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="X3" s="2">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Y3" s="2">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z3" s="2">
-        <v>0.573</v>
+        <v>0.61</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>5.3</v>
+        <v>21</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>5.8</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AI3" s="2">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>101</v>
@@ -1240,13 +1240,13 @@
         <v>102</v>
       </c>
       <c r="AM3" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="AN3" s="2">
-        <v>2849</v>
+        <v>3118</v>
       </c>
       <c r="AO3" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>103</v>
@@ -1258,10 +1258,10 @@
         <v>88</v>
       </c>
       <c r="AS3" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AT3" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU3" s="2" t="s">
         <v>89</v>
@@ -1270,64 +1270,64 @@
         <v>105</v>
       </c>
       <c r="AW3" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2">
-        <v>45.9</v>
+        <v>45.5</v>
       </c>
       <c r="AZ3" s="2">
-        <v>16.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BA3" s="2">
-        <v>33.6</v>
+        <v>14.2</v>
       </c>
       <c r="BB3" s="2">
-        <v>0.499</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2">
-        <v>16.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BG3" s="2">
-        <v>33.6</v>
+        <v>14.2</v>
       </c>
       <c r="BH3" s="2">
-        <v>0.499</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="BI3" s="2">
-        <v>0.499</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="BJ3" s="2">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="BK3" s="2">
-        <v>13.2</v>
+        <v>10.8</v>
       </c>
       <c r="BL3" s="2">
-        <v>0.416</v>
+        <v>0.441</v>
       </c>
       <c r="BM3" s="2"/>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="BP3" s="2">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="BQ3" s="2"/>
       <c r="BR3" s="2"/>
       <c r="BS3" s="2"/>
       <c r="BT3" s="2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BU3" s="2">
-        <v>38.9</v>
+        <v>24.1</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BW3" s="2" t="s">
         <v>101</v>
@@ -1336,7 +1336,7 @@
         <v>102</v>
       </c>
       <c r="BY3" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="4" spans="1:77">
@@ -1344,10 +1344,10 @@
         <v>2735</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>87</v>
@@ -1428,7 +1428,7 @@
         <v>14.1</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>101</v>
@@ -1443,7 +1443,7 @@
         <v>2850</v>
       </c>
       <c r="AO4" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP4" s="2" t="s">
         <v>103</v>
@@ -1464,7 +1464,7 @@
         <v>89</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW4" s="2">
         <v>35</v>
@@ -1524,7 +1524,7 @@
         <v>30.1</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BW4" s="2" t="s">
         <v>101</v>
@@ -1538,13 +1538,13 @@
     </row>
     <row r="5" spans="1:77">
       <c r="A5" s="2">
-        <v>2219</v>
+        <v>2735</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>87</v>
@@ -1556,10 +1556,10 @@
         <v>88</v>
       </c>
       <c r="G5" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>89</v>
@@ -1572,60 +1572,60 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="N5" s="2">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="P5" s="2">
-        <v>0.426</v>
+        <v>0.438</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="U5" s="2">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="V5" s="2">
-        <v>0.426</v>
+        <v>0.438</v>
       </c>
       <c r="W5" s="2">
-        <v>0.426</v>
+        <v>0.438</v>
       </c>
       <c r="X5" s="2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Y5" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" s="2">
-        <v>0.55</v>
+        <v>0.573</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AD5" s="2">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI5" s="2">
-        <v>16.9</v>
+        <v>14.1</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>101</v>
@@ -1634,13 +1634,13 @@
         <v>102</v>
       </c>
       <c r="AM5" s="2">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="AN5" s="2">
-        <v>2313</v>
+        <v>2848</v>
       </c>
       <c r="AO5" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP5" s="2" t="s">
         <v>103</v>
@@ -1652,76 +1652,76 @@
         <v>88</v>
       </c>
       <c r="AS5" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AT5" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AU5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW5" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2">
-        <v>47.8</v>
+        <v>45.2</v>
       </c>
       <c r="AZ5" s="2">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="BA5" s="2">
-        <v>31.1</v>
+        <v>28.5</v>
       </c>
       <c r="BB5" s="2">
-        <v>0.509</v>
+        <v>0.51</v>
       </c>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="BG5" s="2">
-        <v>31.1</v>
+        <v>28.5</v>
       </c>
       <c r="BH5" s="2">
-        <v>0.509</v>
+        <v>0.51</v>
       </c>
       <c r="BI5" s="2">
-        <v>0.509</v>
+        <v>0.51</v>
       </c>
       <c r="BJ5" s="2">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="BK5" s="2">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="BL5" s="2">
-        <v>0.504</v>
+        <v>0.464</v>
       </c>
       <c r="BM5" s="2"/>
       <c r="BN5" s="2"/>
-      <c r="BO5" s="3">
-        <v>27.2</v>
+      <c r="BO5" s="2">
+        <v>22.9</v>
       </c>
       <c r="BP5" s="2">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="BQ5" s="2"/>
       <c r="BR5" s="2"/>
       <c r="BS5" s="2"/>
       <c r="BT5" s="2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BU5" s="2">
-        <v>38.4</v>
+        <v>34.7</v>
       </c>
       <c r="BV5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BW5" s="2" t="s">
         <v>101</v>
@@ -1730,18 +1730,18 @@
         <v>102</v>
       </c>
       <c r="BY5" s="2">
-        <v>1961</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="6" spans="1:77">
       <c r="A6" s="2">
-        <v>2097</v>
+        <v>2735</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>87</v>
@@ -1753,10 +1753,10 @@
         <v>88</v>
       </c>
       <c r="G6" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>89</v>
@@ -1765,61 +1765,61 @@
         <v>90</v>
       </c>
       <c r="K6" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>42.5</v>
+        <v>44.4</v>
       </c>
       <c r="N6" s="2">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" s="2">
-        <v>16.1</v>
+        <v>12.6</v>
       </c>
       <c r="P6" s="2">
-        <v>0.467</v>
+        <v>0.438</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="U6" s="2">
-        <v>16.1</v>
+        <v>12.6</v>
       </c>
       <c r="V6" s="2">
-        <v>0.467</v>
+        <v>0.438</v>
       </c>
       <c r="W6" s="2">
-        <v>0.467</v>
+        <v>0.438</v>
       </c>
       <c r="X6" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Y6" s="2">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" s="2">
-        <v>0.612</v>
+        <v>0.573</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AD6" s="2">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AI6" s="2">
-        <v>18.2</v>
+        <v>14.1</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>93</v>
@@ -1831,13 +1831,13 @@
         <v>102</v>
       </c>
       <c r="AM6" s="2">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="AN6" s="2">
-        <v>2209</v>
+        <v>2849</v>
       </c>
       <c r="AO6" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>103</v>
@@ -1849,10 +1849,10 @@
         <v>88</v>
       </c>
       <c r="AS6" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AU6" s="2" t="s">
         <v>89</v>
@@ -1861,61 +1861,61 @@
         <v>107</v>
       </c>
       <c r="AW6" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2">
-        <v>46.4</v>
+        <v>45.9</v>
       </c>
       <c r="AZ6" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="BA6" s="2">
-        <v>32.1</v>
+        <v>33.6</v>
       </c>
       <c r="BB6" s="2">
-        <v>0.461</v>
+        <v>0.499</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="BG6" s="2">
-        <v>32.1</v>
+        <v>33.6</v>
       </c>
       <c r="BH6" s="2">
-        <v>0.461</v>
+        <v>0.499</v>
       </c>
       <c r="BI6" s="2">
-        <v>0.461</v>
+        <v>0.499</v>
       </c>
       <c r="BJ6" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="BK6" s="2">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="BL6" s="2">
-        <v>0.582</v>
+        <v>0.416</v>
       </c>
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
       <c r="BO6" s="2">
-        <v>27</v>
+        <v>23.5</v>
       </c>
       <c r="BP6" s="2">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="BQ6" s="2"/>
       <c r="BR6" s="2"/>
       <c r="BS6" s="2"/>
       <c r="BT6" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BU6" s="2">
-        <v>37.6</v>
+        <v>38.9</v>
       </c>
       <c r="BV6" s="2" t="s">
         <v>93</v>
@@ -1927,18 +1927,18 @@
         <v>102</v>
       </c>
       <c r="BY6" s="2">
-        <v>1960</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="7" spans="1:77">
       <c r="A7" s="2">
-        <v>2995</v>
+        <v>2865</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>87</v>
@@ -1950,10 +1950,10 @@
         <v>88</v>
       </c>
       <c r="G7" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>89</v>
@@ -1962,61 +1962,61 @@
         <v>90</v>
       </c>
       <c r="K7" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2">
-        <v>40.7</v>
+        <v>43.4</v>
       </c>
       <c r="N7" s="2">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="P7" s="2">
-        <v>0.454</v>
+        <v>0.415</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U7" s="2">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="V7" s="2">
-        <v>0.454</v>
+        <v>0.415</v>
       </c>
       <c r="W7" s="2">
-        <v>0.454</v>
+        <v>0.415</v>
       </c>
       <c r="X7" s="2">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Y7" s="2">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z7" s="2">
-        <v>0.61</v>
+        <v>0.551</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>5.8</v>
+        <v>22.8</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>4.8</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AI7" s="2">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>94</v>
@@ -2028,13 +2028,13 @@
         <v>102</v>
       </c>
       <c r="AM7" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="AN7" s="2">
-        <v>3118</v>
+        <v>2984</v>
       </c>
       <c r="AO7" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP7" s="2" t="s">
         <v>103</v>
@@ -2046,73 +2046,73 @@
         <v>88</v>
       </c>
       <c r="AS7" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT7" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU7" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW7" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2">
-        <v>45.5</v>
+        <v>47.3</v>
       </c>
       <c r="AZ7" s="2">
-        <v>9.699999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="BA7" s="2">
-        <v>14.2</v>
+        <v>25.2</v>
       </c>
       <c r="BB7" s="2">
-        <v>0.6830000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
       <c r="BF7" s="2">
-        <v>9.699999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="BG7" s="2">
-        <v>14.2</v>
+        <v>25.2</v>
       </c>
       <c r="BH7" s="2">
-        <v>0.6830000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BI7" s="2">
-        <v>0.6830000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BJ7" s="2">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="BK7" s="2">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="BL7" s="2">
-        <v>0.441</v>
+        <v>0.513</v>
       </c>
       <c r="BM7" s="2"/>
       <c r="BN7" s="2"/>
       <c r="BO7" s="2">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="BP7" s="2">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="BQ7" s="2"/>
       <c r="BR7" s="2"/>
       <c r="BS7" s="2"/>
       <c r="BT7" s="2">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="BU7" s="2">
-        <v>24.1</v>
+        <v>33.5</v>
       </c>
       <c r="BV7" s="2" t="s">
         <v>94</v>
@@ -2124,18 +2124,18 @@
         <v>102</v>
       </c>
       <c r="BY7" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="8" spans="1:77">
       <c r="A8" s="2">
-        <v>2865</v>
+        <v>3513</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>87</v>
@@ -2147,10 +2147,10 @@
         <v>88</v>
       </c>
       <c r="G8" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>89</v>
@@ -2159,79 +2159,79 @@
         <v>90</v>
       </c>
       <c r="K8" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2">
-        <v>43.4</v>
+        <v>42.7</v>
       </c>
       <c r="N8" s="2">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O8" s="2">
-        <v>12.1</v>
+        <v>8.4</v>
       </c>
       <c r="P8" s="2">
-        <v>0.415</v>
+        <v>0.433</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="U8" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="X8" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="Y8" s="2">
         <v>5</v>
       </c>
-      <c r="U8" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0.415</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0.415</v>
-      </c>
-      <c r="X8" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>5.2</v>
-      </c>
       <c r="Z8" s="2">
-        <v>0.551</v>
+        <v>0.526</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2">
-        <v>22.8</v>
+        <v>19.3</v>
       </c>
       <c r="AD8" s="2">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="2">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>102</v>
       </c>
       <c r="AM8" s="2">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="AN8" s="2">
-        <v>2984</v>
+        <v>3901</v>
       </c>
       <c r="AO8" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP8" s="2" t="s">
         <v>103</v>
@@ -2243,73 +2243,73 @@
         <v>88</v>
       </c>
       <c r="AS8" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AT8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU8" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AW8" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2">
-        <v>47.3</v>
+        <v>45.3</v>
       </c>
       <c r="AZ8" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="BA8" s="2">
         <v>13.6</v>
       </c>
-      <c r="BA8" s="2">
-        <v>25.2</v>
-      </c>
       <c r="BB8" s="2">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="BG8" s="2">
         <v>13.6</v>
       </c>
-      <c r="BG8" s="2">
-        <v>25.2</v>
-      </c>
       <c r="BH8" s="2">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="BI8" s="2">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="BJ8" s="2">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="BK8" s="2">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="BL8" s="2">
-        <v>0.513</v>
+        <v>0.446</v>
       </c>
       <c r="BM8" s="2"/>
       <c r="BN8" s="2"/>
       <c r="BO8" s="2">
-        <v>24.6</v>
+        <v>21.1</v>
       </c>
       <c r="BP8" s="2">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="BQ8" s="2"/>
       <c r="BR8" s="2"/>
       <c r="BS8" s="2"/>
       <c r="BT8" s="2">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="BU8" s="2">
-        <v>33.5</v>
+        <v>20.5</v>
       </c>
       <c r="BV8" s="2" t="s">
         <v>95</v>
@@ -2321,18 +2321,18 @@
         <v>102</v>
       </c>
       <c r="BY8" s="2">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="9" spans="1:77">
       <c r="A9" s="2">
-        <v>2332</v>
+        <v>2467</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>87</v>
@@ -2344,10 +2344,10 @@
         <v>88</v>
       </c>
       <c r="G9" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>89</v>
@@ -2356,44 +2356,44 @@
         <v>90</v>
       </c>
       <c r="K9" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2">
-        <v>45.2</v>
+        <v>44.9</v>
       </c>
       <c r="N9" s="2">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="O9" s="2">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="P9" s="2">
-        <v>0.457</v>
+        <v>0.432</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="U9" s="2">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="V9" s="2">
-        <v>0.457</v>
+        <v>0.432</v>
       </c>
       <c r="W9" s="2">
-        <v>0.457</v>
+        <v>0.432</v>
       </c>
       <c r="X9" s="2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y9" s="2">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" s="2">
-        <v>0.595</v>
+        <v>0.555</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2407,10 +2407,10 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>18.9</v>
+        <v>2.4</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>16.8</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>96</v>
@@ -2422,13 +2422,13 @@
         <v>102</v>
       </c>
       <c r="AM9" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="AN9" s="2">
-        <v>2445</v>
+        <v>2580</v>
       </c>
       <c r="AO9" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP9" s="2" t="s">
         <v>103</v>
@@ -2440,10 +2440,10 @@
         <v>88</v>
       </c>
       <c r="AS9" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" s="2" t="s">
         <v>89</v>
@@ -2456,57 +2456,57 @@
       </c>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="AZ9" s="2">
-        <v>20</v>
+        <v>18.3</v>
       </c>
       <c r="BA9" s="2">
-        <v>39.5</v>
+        <v>34.6</v>
       </c>
       <c r="BB9" s="2">
-        <v>0.506</v>
+        <v>0.528</v>
       </c>
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2">
-        <v>20</v>
+        <v>18.3</v>
       </c>
       <c r="BG9" s="2">
-        <v>39.5</v>
+        <v>34.6</v>
       </c>
       <c r="BH9" s="2">
-        <v>0.506</v>
+        <v>0.528</v>
       </c>
       <c r="BI9" s="2">
-        <v>0.506</v>
+        <v>0.528</v>
       </c>
       <c r="BJ9" s="2">
-        <v>10.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BK9" s="2">
-        <v>17</v>
+        <v>13.9</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.613</v>
+        <v>0.593</v>
       </c>
       <c r="BM9" s="2"/>
       <c r="BN9" s="2"/>
       <c r="BO9" s="2">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="BP9" s="2">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="BQ9" s="2"/>
       <c r="BR9" s="2"/>
       <c r="BS9" s="2"/>
       <c r="BT9" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="BU9" s="3">
-        <v>50.4</v>
+        <v>1.7</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>44.8</v>
       </c>
       <c r="BV9" s="2" t="s">
         <v>96</v>
@@ -2518,18 +2518,18 @@
         <v>102</v>
       </c>
       <c r="BY9" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="10" spans="1:77">
       <c r="A10" s="2">
-        <v>3513</v>
+        <v>2600</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>87</v>
@@ -2541,10 +2541,10 @@
         <v>88</v>
       </c>
       <c r="G10" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>89</v>
@@ -2553,17 +2553,17 @@
         <v>90</v>
       </c>
       <c r="K10" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2">
-        <v>42.7</v>
+        <v>44.6</v>
       </c>
       <c r="N10" s="2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O10" s="2">
-        <v>8.4</v>
+        <v>13.8</v>
       </c>
       <c r="P10" s="2">
         <v>0.433</v>
@@ -2572,10 +2572,10 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="U10" s="2">
-        <v>8.4</v>
+        <v>13.8</v>
       </c>
       <c r="V10" s="2">
         <v>0.433</v>
@@ -2584,48 +2584,48 @@
         <v>0.433</v>
       </c>
       <c r="X10" s="2">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" s="2">
-        <v>0.526</v>
+        <v>0.55</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2">
-        <v>19.3</v>
+      <c r="AC10" s="3">
+        <v>24.7</v>
       </c>
       <c r="AD10" s="2">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AI10" s="2">
-        <v>9.9</v>
+        <v>15</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="AM10" s="2">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="AN10" s="2">
-        <v>3901</v>
+        <v>2718</v>
       </c>
       <c r="AO10" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP10" s="2" t="s">
         <v>103</v>
@@ -2637,73 +2637,73 @@
         <v>88</v>
       </c>
       <c r="AS10" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AT10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AU10" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW10" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2">
-        <v>45.3</v>
+        <v>46.1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>7.9</v>
+        <v>15.1</v>
       </c>
       <c r="BA10" s="2">
-        <v>13.6</v>
+        <v>28.7</v>
       </c>
       <c r="BB10" s="2">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2">
-        <v>7.9</v>
+        <v>15.1</v>
       </c>
       <c r="BG10" s="2">
-        <v>13.6</v>
+        <v>28.7</v>
       </c>
       <c r="BH10" s="2">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="BI10" s="2">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="BJ10" s="2">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="BK10" s="2">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="BL10" s="2">
-        <v>0.446</v>
+        <v>0.531</v>
       </c>
       <c r="BM10" s="2"/>
       <c r="BN10" s="2"/>
       <c r="BO10" s="2">
-        <v>21.1</v>
+        <v>22.3</v>
       </c>
       <c r="BP10" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BQ10" s="2"/>
       <c r="BR10" s="2"/>
       <c r="BS10" s="2"/>
       <c r="BT10" s="2">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="BU10" s="2">
-        <v>20.5</v>
+        <v>36.9</v>
       </c>
       <c r="BV10" s="2" t="s">
         <v>97</v>
@@ -2715,18 +2715,18 @@
         <v>102</v>
       </c>
       <c r="BY10" s="2">
-        <v>1969</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="11" spans="1:77">
       <c r="A11" s="2">
-        <v>2600</v>
+        <v>2097</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>87</v>
@@ -2738,10 +2738,10 @@
         <v>88</v>
       </c>
       <c r="G11" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>89</v>
@@ -2750,61 +2750,61 @@
         <v>90</v>
       </c>
       <c r="K11" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
-        <v>44.6</v>
+        <v>42.5</v>
       </c>
       <c r="N11" s="2">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="O11" s="2">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
       <c r="P11" s="2">
-        <v>0.433</v>
+        <v>0.467</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="U11" s="2">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
       <c r="V11" s="2">
-        <v>0.433</v>
+        <v>0.467</v>
       </c>
       <c r="W11" s="2">
-        <v>0.433</v>
+        <v>0.467</v>
       </c>
       <c r="X11" s="2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y11" s="2">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" s="2">
-        <v>0.55</v>
+        <v>0.612</v>
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="3">
-        <v>24.7</v>
+      <c r="AC11" s="2">
+        <v>24</v>
       </c>
       <c r="AD11" s="2">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AI11" s="2">
-        <v>15</v>
+        <v>18.2</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>98</v>
@@ -2816,13 +2816,13 @@
         <v>102</v>
       </c>
       <c r="AM11" s="2">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="AN11" s="2">
-        <v>2718</v>
+        <v>2209</v>
       </c>
       <c r="AO11" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP11" s="2" t="s">
         <v>103</v>
@@ -2834,73 +2834,73 @@
         <v>88</v>
       </c>
       <c r="AS11" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AT11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW11" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2">
-        <v>46.1</v>
+        <v>46.4</v>
       </c>
       <c r="AZ11" s="2">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="BA11" s="2">
-        <v>28.7</v>
+        <v>32.1</v>
       </c>
       <c r="BB11" s="2">
-        <v>0.524</v>
+        <v>0.461</v>
       </c>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
       <c r="BF11" s="2">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="BG11" s="2">
-        <v>28.7</v>
+        <v>32.1</v>
       </c>
       <c r="BH11" s="2">
-        <v>0.524</v>
+        <v>0.461</v>
       </c>
       <c r="BI11" s="2">
-        <v>0.524</v>
+        <v>0.461</v>
       </c>
       <c r="BJ11" s="2">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="BK11" s="2">
-        <v>12.7</v>
+        <v>13.8</v>
       </c>
       <c r="BL11" s="2">
-        <v>0.531</v>
+        <v>0.582</v>
       </c>
       <c r="BM11" s="2"/>
       <c r="BN11" s="2"/>
       <c r="BO11" s="2">
-        <v>22.3</v>
+        <v>27</v>
       </c>
       <c r="BP11" s="2">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="BQ11" s="2"/>
       <c r="BR11" s="2"/>
       <c r="BS11" s="2"/>
       <c r="BT11" s="2">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BU11" s="2">
-        <v>36.9</v>
+        <v>37.6</v>
       </c>
       <c r="BV11" s="2" t="s">
         <v>98</v>
@@ -2912,18 +2912,18 @@
         <v>102</v>
       </c>
       <c r="BY11" s="2">
-        <v>1964</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="12" spans="1:77">
       <c r="A12" s="2">
-        <v>2467</v>
+        <v>2219</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>87</v>
@@ -2935,10 +2935,10 @@
         <v>88</v>
       </c>
       <c r="G12" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>89</v>
@@ -2951,57 +2951,57 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2">
-        <v>44.9</v>
+        <v>44.3</v>
       </c>
       <c r="N12" s="2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O12" s="2">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="P12" s="2">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U12" s="2">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="V12" s="2">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="W12" s="2">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="X12" s="2">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="Y12" s="2">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.555</v>
+        <v>0.55</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="AD12" s="2">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI12" s="2">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>99</v>
@@ -3013,13 +3013,13 @@
         <v>102</v>
       </c>
       <c r="AM12" s="2">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="AN12" s="2">
-        <v>2580</v>
+        <v>2313</v>
       </c>
       <c r="AO12" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP12" s="2" t="s">
         <v>103</v>
@@ -3031,73 +3031,73 @@
         <v>88</v>
       </c>
       <c r="AS12" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU12" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW12" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="AZ12" s="2">
-        <v>18.3</v>
+        <v>15.8</v>
       </c>
       <c r="BA12" s="2">
-        <v>34.6</v>
+        <v>31.1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2">
-        <v>18.3</v>
+        <v>15.8</v>
       </c>
       <c r="BG12" s="2">
-        <v>34.6</v>
+        <v>31.1</v>
       </c>
       <c r="BH12" s="2">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="BI12" s="2">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="BJ12" s="2">
-        <v>8.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="BK12" s="2">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="BL12" s="2">
-        <v>0.593</v>
+        <v>0.504</v>
       </c>
       <c r="BM12" s="2"/>
       <c r="BN12" s="2"/>
-      <c r="BO12" s="2">
-        <v>24.3</v>
+      <c r="BO12" s="3">
+        <v>27.2</v>
       </c>
       <c r="BP12" s="2">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="BQ12" s="2"/>
       <c r="BR12" s="2"/>
       <c r="BS12" s="2"/>
       <c r="BT12" s="2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BU12" s="2">
-        <v>44.8</v>
+        <v>38.4</v>
       </c>
       <c r="BV12" s="2" t="s">
         <v>99</v>
@@ -3109,7 +3109,7 @@
         <v>102</v>
       </c>
       <c r="BY12" s="2">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="13" spans="1:77">
@@ -3120,7 +3120,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>87</v>
@@ -3216,7 +3216,7 @@
         <v>3485</v>
       </c>
       <c r="AO13" s="2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="AP13" s="2" t="s">
         <v>103</v>
@@ -3237,7 +3237,7 @@
         <v>89</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW13" s="2">
         <v>82</v>
